--- a/P22142_PC(國巨)/規格/DB_Server table V1.0.0.xlsx
+++ b/P22142_PC(國巨)/規格/DB_Server table V1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="權限基本資料" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="140">
   <si>
     <t>roles</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,15 +128,135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>categorys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkitems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">檢查項目代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查項目名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間符號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 迄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechnumbers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">廠房代號 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>廠房名稱</t>
+    <t xml:space="preserve">類別代號 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -148,11 +268,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改時間</t>
+    <t>建立時間</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -164,138 +280,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>categorys</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">廠房代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkitems</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">檢查項目代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢查項目名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>參考 起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中間符號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>參考 迄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mechnumbers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢查項目名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">廠房代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">類別代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RL001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -314,9 +298,6 @@
     <t>UR006</t>
   </si>
   <si>
-    <t>UR007</t>
-  </si>
-  <si>
     <t>UR008</t>
   </si>
   <si>
@@ -333,22 +314,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FT002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FT003</t>
   </si>
   <si>
-    <t>FT004</t>
-  </si>
-  <si>
     <t>FT005</t>
   </si>
   <si>
-    <t>FT006</t>
-  </si>
-  <si>
     <t>FT007</t>
   </si>
   <si>
@@ -362,9 +333,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CG002</t>
-  </si>
-  <si>
     <t>CG003</t>
   </si>
   <si>
@@ -427,10 +395,6 @@
   </si>
   <si>
     <t>CK014</t>
-  </si>
-  <si>
-    <t>MN001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MN002</t>
@@ -500,37 +464,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Create Table FACTORYS
-(
-FT001 nvarchar(10) NOT NULL,
-FT002 nvarchar(20) NULL,
-FT003 nvarchar(10) NULL,
-FT004 nvarchar(10) NULL,
-FT005 datetime NULL,
-FT006 datetime NULL,
-FT007 nvarchar(10) NULL,
-FT008 nvarchar(20) NULL,
-FT009 nvarchar(40) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table CATEGORYS
-(
-CG001 nvarchar(10) NOT NULL,
-CG002 nvarchar(20) NULL,
-CG003 nvarchar(10) NULL,
-CG004 nvarchar(10) NULL,
-CG005 datetime NULL,
-CG006 datetime NULL,
-CG007 nvarchar(10) NULL,
-CG008 nvarchar(20) NULL,
-CG009 nvarchar(40) NULL
-)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -554,6 +488,96 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>INSERT INTO ROLES (RL001,RL002) VALUES ('MA','管理者');</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO ROLES (RL001,RL002) VALUES ('OP','操作者')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">廠房代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠房名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table FACTORYS
+(
+FT001 nvarchar(10) NOT NULL,
+FT002 nvarchar(20) NULL,
+FT003 nvarchar(10) NULL,
+FT004 nvarchar(10) NULL,
+FT005 datetime NULL,
+FT006 datetime NULL,
+FT007 nvarchar(10) NULL,
+FT008 nvarchar(20) NULL,
+FT009 nvarchar(40) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">類別代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table CATEGORYS
+(
+CG001 nvarchar(10) NOT NULL,
+CG002 nvarchar(20) NULL,
+CG003 nvarchar(10) NULL,
+CG004 nvarchar(10) NULL,
+CG005 datetime NULL,
+CG006 datetime NULL,
+CG007 nvarchar(10) NULL,
+CG008 nvarchar(20) NULL,
+CG009 nvarchar(40) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Create Table MECHNUMBERS
 (
 MN001 nvarchar(10) NOT NULL,
@@ -571,19 +595,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO ROLES (RL001,RL002) VALUES ('MA','管理者');</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO ROLES (RL001,RL002) VALUES ('OP','操作者')</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UR003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UR004</t>
+    <t>MN001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -777,13 +793,13 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1112,15 +1128,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.4">
@@ -1140,11 +1156,11 @@
         <v>5</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -1159,13 +1175,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
-        <v>133</v>
+      <c r="H3" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -1178,8 +1194,8 @@
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="15" t="s">
-        <v>134</v>
+      <c r="H4" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1189,7 +1205,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
@@ -1234,7 +1250,7 @@
       <c r="E11" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1251,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1266,15 +1282,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
@@ -1297,7 +1313,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -1315,7 +1331,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1331,7 +1347,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -1347,7 +1363,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -1365,7 +1381,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -1381,7 +1397,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -1397,7 +1413,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -1413,10 +1429,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
@@ -1427,7 +1443,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>22</v>
@@ -1441,7 +1457,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -1457,7 +1473,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -1473,7 +1489,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
@@ -1505,7 +1521,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1519,15 +1535,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
@@ -1546,11 +1562,11 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1559,16 +1575,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -1577,14 +1593,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -1593,14 +1609,14 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -1609,42 +1625,42 @@
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -1656,14 +1672,14 @@
         <v>24</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6">
         <v>20</v>
@@ -1672,11 +1688,11 @@
         <v>24</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="G10" s="13"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>27</v>
@@ -1685,10 +1701,10 @@
         <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
@@ -1696,10 +1712,10 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G13" s="12"/>
+      <c r="G13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1717,7 +1733,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1732,15 +1748,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1763,16 +1779,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -1781,23 +1797,23 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6">
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -1806,58 +1822,58 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="9"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -1873,7 +1889,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -1882,14 +1898,14 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -1940,15 +1956,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
@@ -1971,16 +1987,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -1989,23 +2005,23 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6">
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -2014,78 +2030,78 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="6">
         <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="6">
         <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -2101,26 +2117,26 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="9"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -2131,21 +2147,21 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E13" s="8"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
@@ -2154,14 +2170,14 @@
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>6</v>
@@ -2177,10 +2193,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
@@ -2213,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2228,15 +2244,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
@@ -2259,50 +2275,50 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="6">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6">
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -2311,16 +2327,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
@@ -2329,7 +2345,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -2338,74 +2354,74 @@
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" s="6">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="9"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -2421,7 +2437,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>

--- a/P22142_PC(國巨)/規格/DB_Server table V1.0.0.xlsx
+++ b/P22142_PC(國巨)/規格/DB_Server table V1.0.0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671814C1-9D52-4DFA-9E0B-AC2C47D7A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="732" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="權限基本資料" sheetId="1" r:id="rId1"/>
@@ -13,13 +14,17 @@
     <sheet name="類別基本資料" sheetId="4" r:id="rId4"/>
     <sheet name="檢查項目基本資料" sheetId="5" r:id="rId5"/>
     <sheet name="單位機械編號資料" sheetId="6" r:id="rId6"/>
+    <sheet name="運轉紀錄表" sheetId="7" r:id="rId7"/>
+    <sheet name="冷氣紀錄表" sheetId="8" r:id="rId8"/>
+    <sheet name="水電紀錄表" sheetId="9" r:id="rId9"/>
+    <sheet name="所有歷程記錄" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="356">
   <si>
     <t>roles</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,10 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改時間</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -140,10 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改時間</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -180,10 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改時間</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,51 +189,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">檢查項目代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>檢查項目名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>參考 起</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中間符號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>參考 迄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>備註2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>mechnumbers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">廠房代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">類別代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>修改者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mechnumbers</t>
+    <t>建立時間</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -248,34 +237,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">廠房代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">類別代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>備用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -288,10 +249,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>UR002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UR005</t>
   </si>
   <si>
@@ -310,10 +267,6 @@
     <t>UR011</t>
   </si>
   <si>
-    <t>FT001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FT003</t>
   </si>
   <si>
@@ -329,10 +282,6 @@
     <t>FT009</t>
   </si>
   <si>
-    <t>CG001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CG003</t>
   </si>
   <si>
@@ -354,38 +303,7 @@
     <t>CG009</t>
   </si>
   <si>
-    <t>CK001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CK002</t>
-  </si>
-  <si>
-    <t>CK003</t>
-  </si>
-  <si>
-    <t>CK004</t>
-  </si>
-  <si>
-    <t>CK005</t>
-  </si>
-  <si>
-    <t>CK006</t>
-  </si>
-  <si>
-    <t>CK007</t>
-  </si>
-  <si>
-    <t>CK008</t>
-  </si>
-  <si>
-    <t>CK009</t>
-  </si>
-  <si>
     <t>CK010</t>
-  </si>
-  <si>
-    <t>CK011</t>
   </si>
   <si>
     <t>CK012</t>
@@ -439,11 +357,859 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UR012</t>
+  </si>
+  <si>
+    <t>INSERT INTO ROLES (RL001,RL002) VALUES ('MA','管理者');</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO ROLES (RL001,RL002) VALUES ('OP','操作者')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">廠房代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠房名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">類別代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>運轉紀錄若是要將真空機與空壓機分開也可以，各自Heads與bodys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visits_heads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visits_bodys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v_h_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序號唯一值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v_h_factory_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">廠房代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v_b_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v_h_category_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">類別代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v_b_checkitem_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">檢查項目代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v_h_mech_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">機械編號代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_checkitem_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查項目名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_h_mech_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械編號名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_checkitem_start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_h_creator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_checkitem_symbol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間符號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_h_created_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_checkitem_end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 迄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_h_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_checkitem_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_h_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_checkitem_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_h_memo3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_creator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_created_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v_b_memo3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coldair_heads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>coldair_bodys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c_h_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序號唯一值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c_h_factory_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">廠房代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c_b_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c_h_category_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">類別代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c_b_checkitem_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">檢查項目代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c_h_mech_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">機械編號代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_checkitem_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查項目名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_h_mech_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械編號名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_checkitem_start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_h_creator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_checkitem_symbol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間符號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_h_created_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_checkitem_end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 迄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_h_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_checkitem_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_h_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_checkitem_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_h_memo3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_creator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_created_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_b_memo3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>records_heads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>records_bodys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">r_h_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序號唯一值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY(針對紅字不同需新增序號)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">r_h_factory_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">廠房代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">r_b_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序號唯一值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_factory_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠房名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">r_b_checkitem_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">檢查項目代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">r_h_category_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">類別代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_checkitem_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查項目名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_category_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_checkitem_start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">r_b_mech_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">機械編號代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_checkitem_symbol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中間符號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_mech_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械編號名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_checkitem_end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 迄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紀錄日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_checkitem_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_pdano</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_checkitem_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_userid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人員ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>次數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前用不同預設為0[防以後多次用]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_creator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_creator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_editor_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_editor_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_created_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_created_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_updated_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_updated_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_b_memo3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_h_memo3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterelc_heads</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterelc_bodys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">w_h_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head.id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">w_h_factory_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">w_b_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">w_h_category_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">w_b_checkitem_id </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_h_creator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_checkitem_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_h_created_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_checkitem_start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_h_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_checkitem_symbol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_h_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_checkitem_end</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_h_memo3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_checkitem_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_checkitem_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_creator_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_created_at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_memo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_memo2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_b_memo3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Create Table USERS 
@@ -455,8 +1221,8 @@
 UR005 nvarchar(250) NULL,
 UR006 nvarchar(10) NULL,
 UR007 nvarchar(10) NULL,
-UR008 datetime NULL,
-UR009 datetime NULL,
+UR008 nvarchar(20) NULL,
+UR009 nvarchar(20) NULL,
 UR010 nvarchar(10) NULL,
 UR011 nvarchar(20) NULL,
 UR012 nvarchar(40) NULL
@@ -464,7 +1230,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
+    <t>Create Table FACTORYS
+(
+FT001 nvarchar(10) NOT NULL,
+FT002 nvarchar(20) NULL,
+FT003 nvarchar(10) NULL,
+FT004 nvarchar(10) NULL,
+FT005 nvarchar(20) NULL,
+FT006 nvarchar(20) NULL,
+FT007 nvarchar(10) NULL,
+FT008 nvarchar(20) NULL,
+FT009 nvarchar(40) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table CATEGORYS
+(
+CG001 nvarchar(10) NOT NULL,
+CG002 nvarchar(20) NULL,
+CG003 nvarchar(10) NULL,
+CG004 nvarchar(10) NULL,
+CG005 nvarchar(20) NULL,
+CG006 nvarchar(20) NULL,
+CG007 nvarchar(10) NULL,
+CG008 nvarchar(20) NULL,
+CG009 nvarchar(40) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table MECHNUMBERS
+(
+MN001 nvarchar(20) NOT NULL,
+MN002 nvarchar(20) NULL,
+MN003 nvarchar(10) NULL,
+MN004 nvarchar(10) NULL,
+MN005 nvarchar(10) NULL,
+MN006 nvarchar(10) NULL,
+MN007 nvarchar(20) NULL,
+MN008 nvarchar(20) NULL,
+MN009 nvarchar(10) NULL,
+MN010 nvarchar(20) NULL,
+MN011 nvarchar(40) NULL
+)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -479,8 +1288,8 @@
 CK007 nvarchar(40) NULL,
 CK008 nvarchar(10) NULL,
 CK009 nvarchar(10) NULL,
-CK010 datetime NULL,
-CK011 datetime NULL,
+CK010 nvarchar(20) NULL,
+CK011 nvarchar(20) NULL,
 CK012 nvarchar(10) NULL,
 CK013 nvarchar(20) NULL,
 CK014 nvarchar(40) NULL
@@ -488,27 +1297,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO ROLES (RL001,RL002) VALUES ('MA','管理者');</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO ROLES (RL001,RL002) VALUES ('OP','操作者')</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UR004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UR003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UR007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">廠房代號 </t>
+    <t>CG002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 迄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -516,98 +1329,300 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FT004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FT006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>廠房名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table FACTORYS
+    <t>修改時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查項目名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">檢查項目代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>參考 起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO USERS (UR001,UR002,UR003,UR004,UR005,UR006,UR007,UR008,UR009,UR010,UR011,UR012) VALUES ('00000000','ADMIN','N','MA','','ADMIN','','2022-11-23 20:02:20','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO USERS (UR001,UR002,UR003,UR004,UR005,UR006,UR007,UR008,UR009,UR010,UR011,UR012) VALUES ('12345671','USER01','N','MA','','ADMIN','','2022-11-23 20:02:20','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO USERS (UR001,UR002,UR003,UR004,UR005,UR006,UR007,UR008,UR009,UR010,UR011,UR012) VALUES ('12345672','USER02','N','OP','','ADMIN','','2022-11-23 20:02:20','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO USERS (UR001,UR002,UR003,UR004,UR005,UR006,UR007,UR008,UR009,UR010,UR011,UR012) VALUES ('12345673','USER03','N','OP','','ADMIN','','2022-11-23 20:02:20','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO USERS (UR001,UR002,UR003,UR004,UR005,UR006,UR007,UR008,UR009,UR010,UR011,UR012) VALUES ('12345674','USER04','N','OP','','ADMIN','','2022-11-23 20:02:20','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO USERS (UR001,UR002,UR003,UR004,UR005,UR006,UR007,UR008,UR009,UR010,UR011,UR012) VALUES ('12345675','USER05','N','MA','','ADMIN','','2022-11-23 20:02:20','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO USERS (UR001,UR002,UR003,UR004,UR005,UR006,UR007,UR008,UR009,UR010,UR011,UR012) VALUES ('12345676','USER06','N','OP','','ADMIN','','2022-11-23 20:02:20','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO USERS (UR001,UR002,UR003,UR004,UR005,UR006,UR007,UR008,UR009,UR010,UR011,UR012) VALUES ('12345677','USER07','N','OP','','ADMIN','','2022-11-23 20:02:20','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO USERS (UR001,UR002,UR003,UR004,UR005,UR006,UR007,UR008,UR009,UR010,UR011,UR012) VALUES ('12345678','USER08','N','OP','','ADMIN','','2022-11-23 20:02:20','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO FACTORYS (FT001,FT002,FT003,FT004,FT005,FT006,FT007,FT008,FT009) VALUES ('W3','W3廠','ADMIN','','2022-11-23 20:10:10','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO FACTORYS (FT001,FT002,FT003,FT004,FT005,FT006,FT007,FT008,FT009) VALUES ('W3E','W3E廠','ADMIN','','2022-11-23 20:10:10','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO FACTORYS (FT001,FT002,FT003,FT004,FT005,FT006,FT007,FT008,FT009) VALUES ('W6','W6廠','ADMIN','','2022-11-23 20:10:10','','','','')</t>
+  </si>
+  <si>
+    <t>Create Table COMPRESSEDAIR_HEADS 
 (
-FT001 nvarchar(10) NOT NULL,
-FT002 nvarchar(20) NULL,
-FT003 nvarchar(10) NULL,
-FT004 nvarchar(10) NULL,
-FT005 datetime NULL,
-FT006 datetime NULL,
-FT007 nvarchar(10) NULL,
-FT008 nvarchar(20) NULL,
-FT009 nvarchar(40) NULL
+CAH001  nvarchar(10),
+CAH002  nvarchar(10),
+CAH003  nvarchar(10),
+CAH004  nvarchar(10),
+CAH005  nvarchar(20),
+CAH006  nvarchar(10),
+CAH007  nvarchar(20),
+CAH008  nvarchar(10),
+CAH009  nvarchar(20),
+CAH010  nvarchar(40)
 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FT002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">類別代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>類別名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table CATEGORYS
+    <t>Create Table VACUUM_HEADS 
 (
-CG001 nvarchar(10) NOT NULL,
-CG002 nvarchar(20) NULL,
-CG003 nvarchar(10) NULL,
-CG004 nvarchar(10) NULL,
-CG005 datetime NULL,
-CG006 datetime NULL,
-CG007 nvarchar(10) NULL,
-CG008 nvarchar(20) NULL,
-CG009 nvarchar(40) NULL
+VMH001  nvarchar(10),
+VMH002  nvarchar(10),
+VMH003  nvarchar(10),
+VMH004  nvarchar(10),
+VMH005  nvarchar(20),
+VMH006  nvarchar(10),
+VMH007  nvarchar(20),
+VMH008  nvarchar(10),
+VMH009  nvarchar(20),
+VMH010  nvarchar(40)
 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CG002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>機械名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table MECHNUMBERS
+    <t>Create Table COMPRESSEDAIR_BODYS 
 (
-MN001 nvarchar(10) NOT NULL,
-MN002 nvarchar(20) NULL,
-MN003 nvarchar(10) NULL,
-MN004 nvarchar(10) NULL,
-MN005 nvarchar(10) NULL,
-MN006 nvarchar(10) NULL,
-MN007 datetime NULL,
-MN008 datetime NULL,
-MN009 nvarchar(10) NULL,
-MN010 nvarchar(20) NULL,
-MN011 nvarchar(40) NULL
+CAB001  nvarchar(10),
+CAB002  nvarchar(10),
+CAB003  nvarchar(10),
+CAB004  nvarchar(20),
+CAB005  nvarchar(10),
+CAB006  nvarchar(1),
+CAB007  nvarchar(10),
+CAB008  nvarchar(40),
+CAB009  nvarchar(40),
+CAB010  nvarchar(10),
+CAB011  nvarchar(20),
+CAB012  nvarchar(10),
+CAB013  nvarchar(20),
+CAB014  nvarchar(40)
 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MN001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>機械編號</t>
+    <t>Create Table VACUUM_BODYS 
+(
+VMB001  nvarchar(10),
+VMB002  nvarchar(10),
+VMB003  nvarchar(10),
+VMB004  nvarchar(20),
+VMB005  nvarchar(10),
+VMB006  nvarchar(1),
+VMB007  nvarchar(10),
+VMB008  nvarchar(40),
+VMB009  nvarchar(40),
+VMB010  nvarchar(10),
+VMB011  nvarchar(20),
+VMB012  nvarchar(10),
+VMB013  nvarchar(20),
+VMB014  nvarchar(40)
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table COLDAIR_HEADS 
+(
+CAH001  nvarchar(10),
+CAH002  nvarchar(10),
+CAH003  nvarchar(10),
+CAH004  nvarchar(10),
+CAH005  nvarchar(20),
+CAH006  nvarchar(10),
+CAH007  nvarchar(20),
+CAH008  nvarchar(10),
+CAH009  nvarchar(20),
+CAH010  nvarchar(40)
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table COLDAIR_BODYS 
+(
+COB001  nvarchar(10),
+COB002  nvarchar(10),
+COB003  nvarchar(10),
+COB004  nvarchar(20),
+COB005  nvarchar(10),
+COB006  nvarchar(1),
+COB007  nvarchar(10),
+COB008  nvarchar(40),
+COB009  nvarchar(40),
+COB010  nvarchar(10),
+COB011  nvarchar(20),
+COB012  nvarchar(10),
+COB013  nvarchar(20),
+CAB014  nvarchar(40)
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table WATERELC_HEADS 
+(
+WEH001  nvarchar(10),
+WEH002  nvarchar(10),
+WEH003  nvarchar(10),
+WEH004  nvarchar(10),
+WEH005  nvarchar(20),
+WEH006  nvarchar(10),
+WEH007  nvarchar(20),
+WEH008  nvarchar(40)
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table WATERELC_BODYS
+(
+WEB001  nvarchar(10),
+WEB002  nvarchar(10),
+WEB003  nvarchar(10),
+WEB004  nvarchar(20),
+WEB005  nvarchar(10),
+WEB006  nvarchar(1),
+WEB007  nvarchar(10),
+WEB008  nvarchar(40),
+WEB009  nvarchar(40),
+WEB010  nvarchar(10),
+WEB011  nvarchar(20),
+WEB012  nvarchar(10),
+WEB013  nvarchar(20),
+WEB014  nvarchar(40)
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table RECORDS_HEADS
+(
+RDH001  nvarchar(10),
+RDH002  nvarchar(10),
+RDH003  nvarchar(20),
+RDH004  nvarchar(10),
+RDH005  nvarchar(20),
+RDH006  nvarchar(10),
+RDH007  nvarchar(20),
+RDH008  nvarchar(10),
+RDH009  nvarchar(2),
+RDH010  nvarchar(10),
+RDH011  nvarchar(10),
+RDH012  nvarchar(10),
+RDH013  nvarchar(10),
+RDH014  nvarchar(20),
+RDH015  nvarchar(20),
+RDH016  nvarchar(10),
+RDH017  nvarchar(20),
+RDH018  nvarchar(40)
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table RECORDS_BODYS
+(
+RDB001  nvarchar(10),
+RDB002  nvarchar(10),
+RDB003  nvarchar(10),
+RDB004  nvarchar(20),
+RDB005  nvarchar(10),
+RDB006  nvarchar(1),
+RDB007  nvarchar(10),
+RDB008  nvarchar(40),
+RDB009  nvarchar(40),
+RDB010  nvarchar(10),
+RDB011  nvarchar(10),
+RDB012  nvarchar(10),
+RDB013  nvarchar(20),
+RDB014  nvarchar(20),
+RDB015  nvarchar(10),
+RDB016  nvarchar(20),
+RDB017  nvarchar(40)
+)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -673,6 +1688,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -712,7 +1734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -768,12 +1790,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -797,6 +1856,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,10 +1868,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -865,7 +1950,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -898,9 +1983,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -933,6 +2035,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1108,38 +2227,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" customWidth="1"/>
-    <col min="8" max="8" width="61.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="8" max="8" width="61.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1155,12 +2274,12 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -1174,14 +2293,14 @@
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -1193,63 +2312,63 @@
         <v>10</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="14"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F13" s="11"/>
     </row>
   </sheetData>
@@ -1263,37 +2382,733 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A2:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.625" customWidth="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="8">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="6">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="8">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="6">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6">
+        <v>20</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="6">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="6">
+        <v>20</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="6">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="17"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="G24" s="17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="8">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="8">
+        <v>10</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="6">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="G28" s="17"/>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="6">
+        <v>20</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="G29" s="17"/>
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="10">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="G30" s="17"/>
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="G31" s="17"/>
+      <c r="H31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="10">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="G32" s="17"/>
+      <c r="H32">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="6">
+        <v>40</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="6">
+        <v>40</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="10">
+        <v>10</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="6">
+        <v>10</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="6">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="6">
+        <v>20</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="6">
+        <v>10</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="6">
+        <v>20</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="6">
+        <v>40</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:G22"/>
+    <mergeCell ref="G24:G43"/>
+    <mergeCell ref="A24:E24"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1309,11 +3124,11 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -1327,11 +3142,14 @@
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G3" s="17"/>
+      <c r="I3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>331</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -1343,11 +3161,14 @@
         <v>14</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G4" s="17"/>
+      <c r="I4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -1359,11 +3180,14 @@
         <v>15</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G5" s="17"/>
+      <c r="I5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -1377,11 +3201,14 @@
       <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G6" s="17"/>
+      <c r="I6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -1393,11 +3220,14 @@
         <v>18</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G7" s="17"/>
+      <c r="I7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -1409,11 +3239,14 @@
         <v>19</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" s="17"/>
+      <c r="I8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -1425,39 +3258,52 @@
         <v>20</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" s="17"/>
+      <c r="I9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>304</v>
+      </c>
+      <c r="C10" s="6">
+        <v>20</v>
+      </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10" s="17"/>
+      <c r="I10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="6">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="E11" s="6"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G11" s="17"/>
+      <c r="I11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -1466,14 +3312,14 @@
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -1482,14 +3328,14 @@
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
@@ -1498,13 +3344,13 @@
         <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G15" s="14"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1517,36 +3363,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I3" sqref="I3:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1562,29 +3408,32 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G3" s="18"/>
+      <c r="I3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -1593,14 +3442,17 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G4" s="18"/>
+      <c r="I4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -1609,58 +3461,65 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="18"/>
+      <c r="I5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="9"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" s="8"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -1669,52 +3528,52 @@
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6">
         <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G13" s="11"/>
     </row>
   </sheetData>
@@ -1729,37 +3588,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1775,45 +3634,45 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6">
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -1822,58 +3681,62 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="E6" s="9"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E8" s="8"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -1882,14 +3745,14 @@
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -1898,14 +3761,14 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -1914,18 +3777,18 @@
         <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1938,36 +3801,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1983,45 +3846,45 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>89</v>
+        <v>321</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="6">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>325</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6">
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>322</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>91</v>
+        <v>312</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -2030,78 +3893,78 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>93</v>
+        <v>328</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>313</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>94</v>
+        <v>326</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6">
         <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>314</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>95</v>
+        <v>327</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6">
         <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>324</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -2110,58 +3973,62 @@
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>20</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>99</v>
+        <v>320</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>20</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
@@ -2170,14 +4037,14 @@
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>6</v>
@@ -2186,34 +4053,34 @@
         <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2226,36 +4093,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2271,81 +4138,81 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C3" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C4" s="6">
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -2354,74 +4221,78 @@
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C8" s="6">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>20</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>20</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -2430,14 +4301,14 @@
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
@@ -2446,34 +4317,35 @@
         <v>40</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2483,10 +4355,1572 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:G14"/>
+    <mergeCell ref="G1:G15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.625" customWidth="1"/>
+    <col min="9" max="9" width="36.625" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="G4" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="6">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="6">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="G11" s="17"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>20</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="G12" s="17"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="G13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="6">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="G14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="6">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="G15" s="17"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="G21" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="6">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="G25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="6">
+        <v>20</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="G26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="10">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="G27" s="17"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="G28" s="17"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="10">
+        <v>10</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="6">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="G30" s="17"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="6">
+        <v>40</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="G31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="G32" s="17"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6">
+        <v>20</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="G33" s="17"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="6">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="G34" s="17"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="6">
+        <v>20</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="G35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="6">
+        <v>40</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="G36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="G4:G16"/>
+    <mergeCell ref="I4:I16"/>
+    <mergeCell ref="G21:G37"/>
+    <mergeCell ref="I21:I37"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A3:G36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.625" customWidth="1"/>
+    <col min="8" max="8" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="G3" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="6">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="6">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="6">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="G20" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="6">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="6">
+        <v>20</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="10">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="10">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="6">
+        <v>40</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="6">
+        <v>40</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="6">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6">
+        <v>20</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="6">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="6">
+        <v>20</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="6">
+        <v>40</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="G3:G15"/>
+    <mergeCell ref="G20:G36"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A3:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.625" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="H3" s="17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="6">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="6">
+        <v>40</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="H18" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="6">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="6">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="10">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="10">
+        <v>10</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="6">
+        <v>40</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="6">
+        <v>40</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="6">
+        <v>10</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6">
+        <v>20</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="6">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="6">
+        <v>20</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="6">
+        <v>40</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H3:H13"/>
+    <mergeCell ref="H18:H34"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/P22142_PC(國巨)/規格/DB_Server table V1.0.0.xlsx
+++ b/P22142_PC(國巨)/規格/DB_Server table V1.0.0.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671814C1-9D52-4DFA-9E0B-AC2C47D7A438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="732" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4220" windowWidth="19420" windowHeight="11020" tabRatio="732" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="權限基本資料" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="362">
   <si>
     <t>roles</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -213,31 +212,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">廠房代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">類別代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -380,10 +355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">廠房代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建立時間</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -405,18 +376,6 @@
   </si>
   <si>
     <t>類別名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>機械名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MN001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>機械編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1245,58 +1204,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Create Table CATEGORYS
-(
-CG001 nvarchar(10) NOT NULL,
-CG002 nvarchar(20) NULL,
-CG003 nvarchar(10) NULL,
-CG004 nvarchar(10) NULL,
-CG005 nvarchar(20) NULL,
-CG006 nvarchar(20) NULL,
-CG007 nvarchar(10) NULL,
-CG008 nvarchar(20) NULL,
-CG009 nvarchar(40) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table MECHNUMBERS
-(
-MN001 nvarchar(20) NOT NULL,
-MN002 nvarchar(20) NULL,
-MN003 nvarchar(10) NULL,
-MN004 nvarchar(10) NULL,
-MN005 nvarchar(10) NULL,
-MN006 nvarchar(10) NULL,
-MN007 nvarchar(20) NULL,
-MN008 nvarchar(20) NULL,
-MN009 nvarchar(10) NULL,
-MN010 nvarchar(20) NULL,
-MN011 nvarchar(40) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table CHECKITEMS
-(
-CK001 nvarchar(10) NOT NULL,
-CK002 nvarchar(20) NULL,
-CK003 nvarchar(10) NULL,
-CK004 nvarchar(1) NULL,
-CK005 nvarchar(10) NULL,
-CK006 nvarchar(40) NULL,
-CK007 nvarchar(40) NULL,
-CK008 nvarchar(10) NULL,
-CK009 nvarchar(10) NULL,
-CK010 nvarchar(20) NULL,
-CK011 nvarchar(20) NULL,
-CK012 nvarchar(10) NULL,
-CK013 nvarchar(20) NULL,
-CK014 nvarchar(40) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CG002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1345,10 +1252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>檢查項目名稱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CK004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1373,19 +1276,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">檢查項目代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>參考 起</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UR002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FT001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1617,11 +1512,141 @@
 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">檢查項目代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table CATEGORYS
+(
+CG001 nvarchar(10) NOT NULL,
+CG002 nvarchar(20) NULL,
+CG003 nvarchar(10) NULL,
+CG004 nvarchar(10) NULL,
+CG005 nvarchar(20) NULL,
+CG006 nvarchar(20) NULL,
+CG007 nvarchar(10) NULL,
+CG008 nvarchar(20) NULL,
+CG009 nvarchar(40) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機械名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">廠房代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">類別代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改時間</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table MECHNUMBERS
+(
+MN001 nvarchar(20) NOT NULL,
+MN002 nvarchar(20) NULL,
+MN003 nvarchar(10) NULL,
+MN004 nvarchar(10) NULL,
+MN005 nvarchar(10) NULL,
+MN006 nvarchar(10) NULL,
+MN007 nvarchar(20) NULL,
+MN008 nvarchar(20) NULL,
+MN009 nvarchar(10) NULL,
+MN010 nvarchar(20) NULL,
+MN011 nvarchar(40) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外鍵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">廠房代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廠房代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">類別代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table CHECKITEMS
+(
+CK001 nvarchar(20) NOT NULL,
+CK002 nvarchar(20) NULL,
+CK003 nvarchar(10) NULL,
+CK004 nvarchar(1) NULL,
+CK005 nvarchar(10) NULL,
+CK006 nvarchar(40) NULL,
+CK007 nvarchar(40) NULL,
+CK008 nvarchar(10) NULL,
+CK009 nvarchar(10) NULL,
+CK010 nvarchar(20) NULL,
+CK011 nvarchar(20) NULL,
+CK012 nvarchar(10) NULL,
+CK013 nvarchar(20) NULL,
+CK014 nvarchar(40) NULL,
+CK015 nvarchar(10) NULL,
+CK016 nvarchar(10) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1892,7 +1917,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1950,7 +1975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1983,26 +2008,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2035,23 +2043,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2227,26 +2218,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
-    <col min="8" max="8" width="61.125" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="8" max="8" width="61.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2255,10 +2246,10 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2277,9 +2268,9 @@
       <c r="G2" s="17"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -2295,12 +2286,12 @@
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
@@ -2314,10 +2305,10 @@
       <c r="E4" s="6"/>
       <c r="G4" s="17"/>
       <c r="H4" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2326,49 +2317,49 @@
       <c r="G5" s="17"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F13" s="11"/>
     </row>
   </sheetData>
@@ -2383,40 +2374,40 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.625" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="G2" s="17" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2434,228 +2425,228 @@
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C5" s="8">
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C6" s="6">
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C7" s="8">
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C8" s="6">
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C9" s="8">
         <v>10</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C10" s="6">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C11" s="8">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C13" s="8">
         <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C14" s="6">
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C15" s="6">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E15" s="6"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C16" s="6">
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E16" s="6"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>6</v>
@@ -2664,14 +2655,14 @@
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E17" s="6"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>6</v>
@@ -2680,75 +2671,75 @@
         <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E18" s="6"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C19" s="6">
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E19" s="9"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C20" s="6">
         <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E20" s="6"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C21" s="6">
         <v>40</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E21" s="8"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G22" s="17"/>
     </row>
-    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="23" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
       <c r="G24" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -2756,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -2766,18 +2757,18 @@
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="13" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C26" s="8">
         <v>10</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>17</v>
@@ -2787,39 +2778,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="13" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C27" s="8">
         <v>10</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C28" s="6">
         <v>10</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E28" s="6"/>
       <c r="G28" s="17"/>
@@ -2827,18 +2818,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C29" s="6">
         <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E29" s="6"/>
       <c r="G29" s="17"/>
@@ -2846,18 +2837,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E30" s="6"/>
       <c r="G30" s="17"/>
@@ -2865,18 +2856,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E31" s="6"/>
       <c r="G31" s="17"/>
@@ -2884,18 +2875,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E32" s="6"/>
       <c r="G32" s="17"/>
@@ -2903,89 +2894,89 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C33" s="6">
         <v>40</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E33" s="6"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C34" s="6">
         <v>40</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E34" s="6"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E35" s="6"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C36" s="6">
         <v>10</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E36" s="6"/>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C37" s="6">
         <v>10</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E37" s="6"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>6</v>
@@ -2994,14 +2985,14 @@
         <v>20</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E38" s="9"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>6</v>
@@ -3010,60 +3001,60 @@
         <v>20</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E39" s="9"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C40" s="6">
         <v>10</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E40" s="6"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C41" s="6">
         <v>20</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E41" s="8"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C42" s="6">
         <v>40</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E42" s="8"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G43" s="17"/>
     </row>
   </sheetData>
@@ -3079,24 +3070,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -3105,10 +3096,10 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3126,9 +3117,9 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -3144,12 +3135,12 @@
       </c>
       <c r="G3" s="17"/>
       <c r="I3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -3163,12 +3154,12 @@
       <c r="E4" s="6"/>
       <c r="G4" s="17"/>
       <c r="I4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -3182,12 +3173,12 @@
       <c r="E5" s="6"/>
       <c r="G5" s="17"/>
       <c r="I5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -3203,12 +3194,12 @@
       </c>
       <c r="G6" s="17"/>
       <c r="I6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -3222,12 +3213,12 @@
       <c r="E7" s="6"/>
       <c r="G7" s="17"/>
       <c r="I7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
@@ -3241,12 +3232,12 @@
       <c r="E8" s="8"/>
       <c r="G8" s="17"/>
       <c r="I8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -3260,15 +3251,15 @@
       <c r="E9" s="6"/>
       <c r="G9" s="17"/>
       <c r="I9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C10" s="6">
         <v>20</v>
@@ -3279,15 +3270,15 @@
       <c r="E10" s="6"/>
       <c r="G10" s="17"/>
       <c r="I10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C11" s="6">
         <v>20</v>
@@ -3298,12 +3289,12 @@
       <c r="E11" s="6"/>
       <c r="G11" s="17"/>
       <c r="I11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -3317,9 +3308,9 @@
       <c r="E12" s="6"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -3333,9 +3324,9 @@
       <c r="E13" s="6"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
@@ -3349,7 +3340,7 @@
       <c r="E14" s="6"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G15" s="17"/>
     </row>
   </sheetData>
@@ -3363,24 +3354,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -3389,10 +3380,10 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3410,9 +3401,9 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -3421,19 +3412,19 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>97</v>
+        <v>358</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="18"/>
       <c r="I3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -3442,17 +3433,17 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="18"/>
       <c r="I4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -3466,12 +3457,12 @@
       <c r="E5" s="6"/>
       <c r="G5" s="18"/>
       <c r="I5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>26</v>
@@ -3485,9 +3476,9 @@
       <c r="E6" s="9"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -3496,14 +3487,14 @@
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -3517,9 +3508,9 @@
       <c r="E8" s="8"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -3533,9 +3524,9 @@
       <c r="E9" s="6"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>31</v>
@@ -3549,9 +3540,9 @@
       <c r="E10" s="6"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>26</v>
@@ -3565,7 +3556,7 @@
       <c r="E11" s="6"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3573,7 +3564,7 @@
       <c r="E12" s="6"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G13" s="11"/>
     </row>
   </sheetData>
@@ -3588,25 +3579,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G1" sqref="G1:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
@@ -3615,10 +3606,10 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3636,9 +3627,9 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
@@ -3647,16 +3638,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
@@ -3665,14 +3656,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -3686,9 +3677,9 @@
       <c r="E5" s="6"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>36</v>
@@ -3702,9 +3693,9 @@
       <c r="E6" s="9"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -3718,9 +3709,9 @@
       <c r="E7" s="6"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -3734,9 +3725,9 @@
       <c r="E8" s="8"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -3750,9 +3741,9 @@
       <c r="E9" s="6"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -3766,9 +3757,9 @@
       <c r="E10" s="6"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -3782,7 +3773,7 @@
       <c r="E11" s="6"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3801,24 +3792,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>41</v>
       </c>
@@ -3827,10 +3818,10 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3848,27 +3839,27 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
@@ -3877,14 +3868,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -3893,14 +3884,14 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>42</v>
@@ -3909,14 +3900,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>43</v>
@@ -3925,14 +3916,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>42</v>
@@ -3941,14 +3932,14 @@
         <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>42</v>
@@ -3962,9 +3953,9 @@
       <c r="E9" s="6"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -3973,14 +3964,14 @@
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>34</v>
@@ -3989,14 +3980,14 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="E11" s="9"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -4005,14 +3996,14 @@
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
@@ -4021,14 +4012,14 @@
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="E13" s="8"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
@@ -4042,9 +4033,9 @@
       <c r="E14" s="6"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>6</v>
@@ -4058,9 +4049,9 @@
       <c r="E15" s="6"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>34</v>
@@ -4074,43 +4065,75 @@
       <c r="E16" s="6"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>355</v>
+      </c>
       <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:G17"/>
+    <mergeCell ref="G1:G19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
@@ -4119,10 +4142,10 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4140,9 +4163,9 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>46</v>
@@ -4151,16 +4174,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>106</v>
+        <v>342</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>46</v>
@@ -4169,14 +4192,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>343</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>46</v>
@@ -4185,16 +4208,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>344</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>46</v>
@@ -4203,16 +4226,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -4221,14 +4244,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>50</v>
+        <v>346</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>46</v>
@@ -4237,14 +4260,14 @@
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
+        <v>347</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -4253,14 +4276,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>348</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -4269,30 +4292,30 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>39</v>
+        <v>349</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="E11" s="9"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -4306,9 +4329,9 @@
       <c r="E12" s="6"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
@@ -4322,7 +4345,7 @@
       <c r="E13" s="8"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4330,7 +4353,7 @@
       <c r="E14" s="6"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4338,14 +4361,14 @@
       <c r="E15" s="6"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4364,29 +4387,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.625" customWidth="1"/>
-    <col min="9" max="9" width="36.625" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6328125" customWidth="1"/>
+    <col min="9" max="9" width="36.6328125" customWidth="1"/>
+    <col min="11" max="11" width="9.26953125" customWidth="1"/>
+    <col min="12" max="12" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -4401,22 +4424,22 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="G4" s="17" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4435,121 +4458,121 @@
       <c r="G5" s="17"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G6" s="17"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C7" s="6">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C8" s="6">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C9" s="6">
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G9" s="17"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C10" s="6">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G10" s="17"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -4558,64 +4581,64 @@
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C13" s="6">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E13" s="9"/>
       <c r="G13" s="17"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C14" s="6">
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="17"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C15" s="6">
         <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E15" s="8"/>
       <c r="G15" s="17"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4624,36 +4647,36 @@
       <c r="G16" s="17"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="21" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="G21" s="17" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -4661,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
@@ -4672,183 +4695,183 @@
       <c r="G22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C23" s="6">
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G23" s="17"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C24" s="6">
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G24" s="17"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C25" s="6">
         <v>10</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E25" s="6"/>
       <c r="G25" s="17"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C26" s="6">
         <v>20</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E26" s="6"/>
       <c r="G26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E27" s="6"/>
       <c r="G27" s="17"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E28" s="6"/>
       <c r="G28" s="17"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E29" s="6"/>
       <c r="G29" s="17"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C30" s="6">
         <v>40</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E30" s="6"/>
       <c r="G30" s="17"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C31" s="6">
         <v>40</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E31" s="6"/>
       <c r="G31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C32" s="6">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E32" s="6"/>
       <c r="G32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
@@ -4857,64 +4880,64 @@
         <v>20</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E33" s="9"/>
       <c r="G33" s="17"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C34" s="6">
         <v>10</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E34" s="6"/>
       <c r="G34" s="17"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C35" s="6">
         <v>20</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E35" s="8"/>
       <c r="G35" s="17"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C36" s="6">
         <v>40</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E36" s="8"/>
       <c r="G36" s="17"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="G37" s="17"/>
       <c r="I37" s="17"/>
     </row>
@@ -4935,41 +4958,41 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="G20" sqref="G20:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.625" customWidth="1"/>
-    <col min="8" max="8" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6328125" customWidth="1"/>
+    <col min="8" max="8" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="G3" s="17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4987,115 +5010,115 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="6">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="B9" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C9" s="6">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -5104,60 +5127,60 @@
         <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C12" s="6">
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E12" s="9"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C13" s="6">
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6">
         <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E14" s="8"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5165,33 +5188,33 @@
       <c r="E15" s="6"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="16" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="G20" s="17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -5199,7 +5222,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
@@ -5209,171 +5232,171 @@
       </c>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C22" s="6">
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C23" s="6">
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E23" s="6"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C24" s="6">
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E24" s="6"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C25" s="6">
         <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E25" s="6"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E26" s="6"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E27" s="6"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E28" s="6"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C29" s="6">
         <v>40</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E29" s="6"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C30" s="6">
         <v>40</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E30" s="6"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E31" s="6"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>6</v>
@@ -5382,60 +5405,60 @@
         <v>20</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E32" s="6"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C33" s="6">
         <v>10</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E33" s="9"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C34" s="6">
         <v>20</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E34" s="6"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C35" s="6">
         <v>40</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E35" s="8"/>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G36" s="17"/>
     </row>
   </sheetData>
@@ -5451,36 +5474,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.625" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="H3" s="17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5498,79 +5521,79 @@
       </c>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C8" s="6">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E8" s="6"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -5579,60 +5602,60 @@
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E9" s="6"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E10" s="9"/>
       <c r="H10" s="17"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C11" s="6">
         <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E11" s="6"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C12" s="6">
         <v>40</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E12" s="8"/>
       <c r="H12" s="17"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5640,33 +5663,33 @@
       <c r="E13" s="6"/>
       <c r="H13" s="17"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="16" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="H18" s="17" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -5674,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
@@ -5684,171 +5707,171 @@
       </c>
       <c r="H19" s="17"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C20" s="6">
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H20" s="17"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C21" s="6">
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E21" s="6"/>
       <c r="H21" s="17"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C22" s="6">
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E22" s="6"/>
       <c r="H22" s="17"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C23" s="6">
         <v>20</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E23" s="6"/>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E24" s="6"/>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E25" s="6"/>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E26" s="6"/>
       <c r="H26" s="17"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C27" s="6">
         <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E27" s="6"/>
       <c r="H27" s="17"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C28" s="6">
         <v>40</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E28" s="6"/>
       <c r="H28" s="17"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C29" s="6">
         <v>10</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E29" s="6"/>
       <c r="H29" s="17"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>6</v>
@@ -5857,60 +5880,60 @@
         <v>20</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E30" s="6"/>
       <c r="H30" s="17"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E31" s="9"/>
       <c r="H31" s="17"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C32" s="6">
         <v>20</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E32" s="6"/>
       <c r="H32" s="17"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C33" s="6">
         <v>40</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E33" s="8"/>
       <c r="H33" s="17"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H34" s="17"/>
     </row>
   </sheetData>

--- a/P22142_PC(國巨)/規格/DB_Server table V1.0.0.xlsx
+++ b/P22142_PC(國巨)/規格/DB_Server table V1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4220" windowWidth="19420" windowHeight="11020" tabRatio="732" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="7200" yWindow="4220" windowWidth="19420" windowHeight="11020" tabRatio="732" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="權限基本資料" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="669">
   <si>
     <t>roles</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -291,12 +291,6 @@
   </si>
   <si>
     <t>MN002</t>
-  </si>
-  <si>
-    <t>MN003</t>
-  </si>
-  <si>
-    <t>MN004</t>
   </si>
   <si>
     <t>MN005</t>
@@ -395,10 +389,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">v_h_id </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -411,10 +401,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Head.id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -427,22 +413,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">v_h_factory_id </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">廠房代號 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">v_b_id </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">v_h_category_id </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">類別代號 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -451,10 +425,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">v_b_checkitem_id </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -463,66 +433,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">v_h_mech_id </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">機械編號代號 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_b_checkitem_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>檢查項目名稱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_h_mech_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>機械編號名稱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_b_checkitem_start</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>參考 起</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_h_creator_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建立者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_b_checkitem_symbol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>中間符號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_h_created_at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建立時間</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_b_checkitem_end</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -531,63 +469,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_h_memo1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>備用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_b_checkitem_memo1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>備註1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_h_memo2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_b_checkitem_memo2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>備註2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_h_memo3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_b_creator_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建立者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>v_b_created_at</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建立時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_b_memo1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_b_memo2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v_b_memo3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1212,18 +1110,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CK003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>參考 迄</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>備註1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建立者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1248,10 +1138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CK001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CK004</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1260,18 +1146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CK002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CK006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CK007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CK005</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1322,78 +1196,6 @@
   </si>
   <si>
     <t>INSERT INTO FACTORYS (FT001,FT002,FT003,FT004,FT005,FT006,FT007,FT008,FT009) VALUES ('W6','W6廠','ADMIN','','2022-11-23 20:10:10','','','','')</t>
-  </si>
-  <si>
-    <t>Create Table COMPRESSEDAIR_HEADS 
-(
-CAH001  nvarchar(10),
-CAH002  nvarchar(10),
-CAH003  nvarchar(10),
-CAH004  nvarchar(10),
-CAH005  nvarchar(20),
-CAH006  nvarchar(10),
-CAH007  nvarchar(20),
-CAH008  nvarchar(10),
-CAH009  nvarchar(20),
-CAH010  nvarchar(40)
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table VACUUM_HEADS 
-(
-VMH001  nvarchar(10),
-VMH002  nvarchar(10),
-VMH003  nvarchar(10),
-VMH004  nvarchar(10),
-VMH005  nvarchar(20),
-VMH006  nvarchar(10),
-VMH007  nvarchar(20),
-VMH008  nvarchar(10),
-VMH009  nvarchar(20),
-VMH010  nvarchar(40)
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table COMPRESSEDAIR_BODYS 
-(
-CAB001  nvarchar(10),
-CAB002  nvarchar(10),
-CAB003  nvarchar(10),
-CAB004  nvarchar(20),
-CAB005  nvarchar(10),
-CAB006  nvarchar(1),
-CAB007  nvarchar(10),
-CAB008  nvarchar(40),
-CAB009  nvarchar(40),
-CAB010  nvarchar(10),
-CAB011  nvarchar(20),
-CAB012  nvarchar(10),
-CAB013  nvarchar(20),
-CAB014  nvarchar(40)
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table VACUUM_BODYS 
-(
-VMB001  nvarchar(10),
-VMB002  nvarchar(10),
-VMB003  nvarchar(10),
-VMB004  nvarchar(20),
-VMB005  nvarchar(10),
-VMB006  nvarchar(1),
-VMB007  nvarchar(10),
-VMB008  nvarchar(40),
-VMB009  nvarchar(40),
-VMB010  nvarchar(10),
-VMB011  nvarchar(20),
-VMB012  nvarchar(10),
-VMB013  nvarchar(20),
-VMB014  nvarchar(40)
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Create Table COLDAIR_HEADS 
@@ -1513,25 +1315,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">檢查項目代號 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table CATEGORYS
-(
-CG001 nvarchar(10) NOT NULL,
-CG002 nvarchar(20) NULL,
-CG003 nvarchar(10) NULL,
-CG004 nvarchar(10) NULL,
-CG005 nvarchar(20) NULL,
-CG006 nvarchar(20) NULL,
-CG007 nvarchar(10) NULL,
-CG008 nvarchar(20) NULL,
-CG009 nvarchar(40) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>機械編號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1572,27 +1355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Create Table MECHNUMBERS
-(
-MN001 nvarchar(20) NOT NULL,
-MN002 nvarchar(20) NULL,
-MN003 nvarchar(10) NULL,
-MN004 nvarchar(10) NULL,
-MN005 nvarchar(10) NULL,
-MN006 nvarchar(10) NULL,
-MN007 nvarchar(20) NULL,
-MN008 nvarchar(20) NULL,
-MN009 nvarchar(10) NULL,
-MN010 nvarchar(20) NULL,
-MN011 nvarchar(40) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MN001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CK015</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1619,6 +1381,18 @@
   <si>
     <t xml:space="preserve">類別代號 </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO CATEGORYS (CG001,CG002,CG003,CG004,CG005,CG006,CG007,CG008,CG009) VALUES ('A','真空機','ADMIN','','2022-11-22 02:26:46','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO CATEGORYS (CG001,CG002,CG003,CG004,CG005,CG006,CG007,CG008,CG009) VALUES ('B','空壓機','ADMIN','','2022-11-22 02:26:57','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO CATEGORYS (CG001,CG002,CG003,CG004,CG005,CG006,CG007,CG008,CG009) VALUES ('C','冷氣記錄','ADMIN','','2022-11-22 02:27:11','','','','')</t>
+  </si>
+  <si>
+    <t>INSERT INTO CATEGORYS (CG001,CG002,CG003,CG004,CG005,CG006,CG007,CG008,CG009) VALUES ('D','水電機械指數表','ADMIN','','2022-11-22 02:27:34','','','','')</t>
   </si>
   <si>
     <t>Create Table CHECKITEMS
@@ -1639,6 +1413,1132 @@
 CK014 nvarchar(40) NULL,
 CK015 nvarchar(10) NULL,
 CK016 nvarchar(10) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00001','尖峰','','','','10','','ADMIN','','2022-11-2412:05:52','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00002','平日半尖峰','','','','14','','ADMIN','','2022-11-2412:16:53','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00003','離峰','','','','18','','ADMIN','','2022-11-2412:22:42','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00004','週六半尖峰','','','','22','','ADMIN','','2022-11-2412:23:40','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00005','VCBMAIN','','','','總表','','ADMIN','','2022-11-2412:24:03','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00006','VCBTO','','','','TR11.12.13','','ADMIN','','2022-11-2412:24:26','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00007','TR1BF~4F','','','','事務','','ADMIN','','2022-11-2412:25:46','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00008','TR2','','','','公用設備','','ADMIN','','2022-11-2412:26:06','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00009','TR3','','','','公用設備','','ADMIN','','2022-11-2412:37:20','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00010','TR4BF~4F','','','','照明+理水','','ADMIN','','2022-11-2412:37:51','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00011','TR5','','','','3F/第三、四單位','4F/第一、二單位','ADMIN','','2022-11-2412:38:42','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00012','TR62FF/MA/M','','','','','','ADMIN','','2022-11-2412:39:03','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00013','TR73F','','','','第一、二單位','','ADMIN','','2022-11-2412:39:31','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00014','TR84F','','','','第三、四單位','','ADMIN','','2022-11-2412:39:58','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00020','TR14VCB4F','','','','','','ADMIN','','2022-11-2401:30:52','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00021','廢水廠','','','','','','ADMIN','','2022-11-2401:31:15','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00022','餐廳','','','','','','ADMIN','','2022-11-2401:31:36','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00023','RA08RF','','','','抽風','','ADMIN','','2022-11-2401:32:10','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00024','廚房水錶','','','','','','ADMIN','','2022-11-2401:32:28','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00025','自來水錶','','','','','','ADMIN','','2022-11-2401:32:43','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00026','自來水錶(消防)','','','','','','ADMIN','','2022-11-2401:33:03','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00027','混床','','','','','','ADMIN','','2022-11-2401:33:13','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00028','NO.1250T','','','','冰水機','','ADMIN','','2022-11-2401:33:40','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00029','NO.2250T','','','','冰水機','','ADMIN','','2022-11-2401:34:13','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00030','NO.3250T','','','','冰水機','','ADMIN','','2022-11-2401:34:37','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00031','NO.4250T','','','','冰水機','','ADMIN','','2022-11-2401:35:00','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00032','NO.5500T','','','','冰水機','','ADMIN','','2022-11-2401:35:17','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00033','NO.6500T','','','','冰水機','','ADMIN','','2022-11-2401:35:38','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00034','NO.7500T','','','','冰水機','','ADMIN','','2022-11-2401:36:21','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00035','NO.1BD','','','','真空機','','ADMIN','','2022-11-2402:02:16','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00036','NO.2BD','','','','真空機','','ADMIN','','2022-11-2402:02:35','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00037','NO.4水封','','','','真空機','','ADMIN','','2022-11-2402:03:16','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00038','NO.5水封','','','','真空機','','ADMIN','','2022-11-2402:03:36','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00039','ZW225(1F)','','','','空壓機','','ADMIN','','2022-11-2402:04:27','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00040','720T軟水','','','','A','','ADMIN','','2022-11-2402:05:06','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00041','720T軟水','','','','B','','ADMIN','','2022-11-2402:06:07','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00042','480T軟水','','','','C','','ADMIN','','2022-11-2402:06:54','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00043','1F理水','','','','','','ADMIN','','2022-11-2402:12:59','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00044','1F自來水','','','','','','ADMIN','','2022-11-2402:13:12','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00045','2F理水','','','','','','ADMIN','','2022-11-2402:13:24','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00046','2F自來水','','','','','','ADMIN','','2022-11-2402:13:38','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00047','3F理水','','','','','','ADMIN','','2022-11-2402:13:51','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00048','3F自來水','','','','','','ADMIN','','2022-11-2402:14:02','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00049','4F自來水','','','','','','ADMIN','','2022-11-2402:14:17','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00050','RO水錶','','','','','','ADMIN','','2022-11-2402:14:32','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00001','尖峰','','','','10','','ADMIN','','2022-11-2402:15:13','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00002','平日半尖峰','','','','14','','ADMIN','','2022-11-2402:15:30','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00003','離峰','','','','18','','ADMIN','','2022-11-2402:20:30','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00004','週六半尖峰','','','','22','','ADMIN','','2022-11-2402:20:37','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00005','週六半尖峰','','','','22','','ADMIN','','2022-11-2402:20:47','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00006','VCBMAIN','','','','總表','','ADMIN','','2022-11-2402:20:56','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00007','VCB1TR1','','','','公用設備','','ADMIN','','2022-11-2402:21:58','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00008','VCB2TR2','','','','事務','','ADMIN','','2022-11-2402:22:26','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00009','VCB3TR34F','','','','第一單位','','ADMIN','','2022-11-2402:23:03','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00010','VCB4TR4','','','','公用設備','','ADMIN','','2022-11-2402:23:30','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00011','VCB5TR54F','','','','第二單位','','ADMIN','','2022-11-2402:23:57','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00012','VCB6TR63F','','','','第二單位','','ADMIN','','2022-11-2402:24:37','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00013','VCB7TR7','','','','機房','','ADMIN','','2022-11-2402:24:58','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00014','VCB8TR8','','','','機房','','ADMIN','','2022-11-2402:25:17','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00015','VCB9TR9','','','','機房','','ADMIN','','2022-11-2402:25:26','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00001','運轉小時','','','','HR','','ADMIN','','2022-11-2402:28:00','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00002','真空','','','','cm/hg','IN','ADMIN','','2022-11-2402:28:53','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00003','真空','','','','cm/hg','OUT','ADMIN','','2022-11-2402:29:26','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00016','尖峰','','','','10','','ADMIN','','2022-11-2402:51:32','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00017','平日半尖峰','','','','14','','ADMIN','','2022-11-2402:51:52','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00015','TR9VCB1F','','','','P/K#1.2.11','','ADMIN','','2022-11-2412:48:25','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00016','TR10VCB','','','','生產單位','','ADMIN','','2022-11-2412:48:50','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00017','TR11VCB1F','','','','第四單位&amp;PK#13','','ADMIN','','2022-11-2412:49:34','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00018','TR12VCB1F','','','','P/K#3.4.12','','ADMIN','','2022-11-2412:50:03','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3_D00019','TR13VCB1F','','','','公用設備','','ADMIN','','2022-11-2412:50:29','','','','','W3','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00018','離峰','','','','18','','ADMIN','','2022-11-2402:52:03','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00019','週六半尖峰','','','','22','','ADMIN','','2022-11-2402:52:11','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00020','VCBMAIN','','','','總表','','ADMIN','','2022-11-2402:52:20','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00021','VCB1TR1','','','','公用設備','','ADMIN','','2022-11-2402:52:41','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00022','VCB2TR2','','','','NO5/6冰水機','','ADMIN','','2022-11-2402:53:33','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00023','VCB3TR32F','','','','第三單位','','ADMIN','','2022-11-2402:54:04','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00024','VCB4TR43F','','','','第三單位','','ADMIN','','2022-11-2402:54:33','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00025','VCB5TR53F','','','','第四單位','','ADMIN','','2022-11-2402:55:02','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00026','VCB6TR62F','','','','第二單位','','ADMIN','','2022-11-2402:55:43','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00027','VCB7TR71F','','','','第一單位','','ADMIN','','2022-11-2402:56:39','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00028','VCB8TR81F','','','','第二單位','','ADMIN','','2022-11-2402:57:08','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00029','VCB9TR91F','','','','第三單位','','ADMIN','','2022-11-2402:59:36','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00030','VCB10TR91F','','','','第四單位','','ADMIN','','2022-11-2403:00:06','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00031','VCB11TR112F','','','','第一單位','','ADMIN','','2022-11-2403:00:31','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00032','VCB12TR124F','','','','第四單位','','ADMIN','','2022-11-2403:01:10','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00033','VCB13TR132F','','','','第四單位','','ADMIN','','2022-11-2403:01:41','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00034','W3E廢水廠','','','','','','ADMIN','','2022-11-2403:04:13','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00035','NO.1500T','','','','冰水機','','ADMIN','','2022-11-2403:04:47','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00036','NO.2500T','','','','冰水機','','ADMIN','','2022-11-2403:05:01','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00037','NO.3500T','','','','冰水機','','ADMIN','','2022-11-2403:05:25','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00038','NO.4250T','','','','冰水機','','ADMIN','','2022-11-2403:05:49','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00039','NO.1油式100HP','','','','真空機','','ADMIN','','2022-11-2403:06:32','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00040','ZR200(RF)','','','','空壓機','','ADMIN','','2022-11-2403:06:54','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00041','1F理水','','','','','','ADMIN','','2022-11-2403:07:20','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00042','2F理水','','','','','','ADMIN','','2022-11-2403:07:31','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00043','3F理水','','','','','','ADMIN','','2022-11-2403:07:39','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00044','4F理水','','','','','','ADMIN','','2022-11-2403:07:58','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00045','A軟水','','','','','','ADMIN','','2022-11-2403:08:28','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00046','B軟水','','','','','','ADMIN','','2022-11-2403:08:52','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00047','C軟水','','','','','','ADMIN','','2022-11-2403:09:06','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00048','A理水','','','','','','ADMIN','','2022-11-2403:09:20','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00049','B理水','','','','','','ADMIN','','2022-11-2403:09:27','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00050','C理水','','','','','','ADMIN','','2022-11-2403:09:34','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00051','ARO水錶','','','','','','ADMIN','','2022-11-2403:09:51','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00052','BRO水錶','','','','','','ADMIN','','2022-11-2403:10:01','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00053','自來水錶','','','','W3E2-3','','ADMIN','','2022-11-2403:10:50','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W3E_D00054','自來水錶','','','','W3E6-2','','ADMIN','','2022-11-2403:11:05','','','','','W3E','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00001','尖峰','','','','','','ADMIN','','2022-11-2403:11:25','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00002','半尖峰','','','','','','ADMIN','','2022-11-2403:11:41','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00003','離峰','','','','','','ADMIN','','2022-11-2403:11:50','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00004','VCBMAIN','','','','總表','','ADMIN','','2022-11-2403:12:05','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00005','VCB1TR1','','','','動力設備','','ADMIN','','2022-11-2403:12:45','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00006','VCB2TR2','','','','公用設備','','ADMIN','','2022-11-2403:13:16','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00007','VCB3TR3','','','','動力設備','','ADMIN','','2022-11-2403:13:44','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00008','VCB4TR4','','','','動力設備','','ADMIN','','2022-11-2403:14:12','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00009','NO.1250T','','','','冰水機','','ADMIN','','2022-11-2403:14:37','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00010','NO.2250T','','','','冰水機','','ADMIN','','2022-11-2403:14:53','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00011','廢水液位','','','','','','ADMIN','','2022-11-2403:15:21','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00012','RO水質','','','','','','ADMIN','','2022-11-2403:15:38','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00013','RO水錶','','','','','','ADMIN','','2022-11-2403:15:47','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00014','軟水','','','','','','ADMIN','','2022-11-2403:15:59','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00015','自來水','','','','','','ADMIN','','2022-11-2403:16:08','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('W6_D00016','民生用水','','','','','','ADMIN','','2022-11-2403:16:35','','','','','W6','D'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00004','排氣溫度','','&lt;','120','℃','','ADMIN','','2022-11-2403:24:02','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00005','進水溫度','','&lt;','25','℃','','ADMIN','','2022-11-2403:24:38','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00006','出水溫度','','&lt;','45','℃','','ADMIN','','2022-11-2403:24:54','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00007','電流','','&lt;','45','AMP','','ADMIN','','2022-11-2403:25:25','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00008','進氣溫度','','&lt;','45','℃','','ADMIN','','2022-11-2403:26:32','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00009','排氣溫度','','&lt;','140','℃','','ADMIN','','2022-11-2403:27:19','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00010','進水溫度','','&lt;','35','','','ADMIN','','2022-11-2403:28:14','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00011','水封液位','','&lt;','0.5','','','ADMIN','','2022-11-2403:28:47','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00012','真空','','&gt;','16','in/hg','','ADMIN','','2022-11-2403:29:21','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00013','油壓差','','&lt;','7','Psi','','ADMIN','','2022-11-2403:29:42','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00014','排氣溫度','','&lt;','220','℉','','ADMIN','','2022-11-2403:30:41','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00015','油液位','','&gt;','0.5','','','ADMIN','','2022-11-2403:31:10','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00016','油溫','','&lt;','220','℉','','ADMIN','','2022-11-2403:34:49','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('A00017','進水溫度','','&lt;','15','℃','','ADMIN','','2022-11-2403:35:20','','','','','NULL','A'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00001','運轉小時','','','','HR','X10倍','ADMIN','','2022-11-2403:36:29','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00002','運轉功率','','&lt;','75','KW','','ADMIN','','2022-11-2403:36:52','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00003','頻率','','&lt;','180','HZ','','ADMIN','','2022-11-2403:37:09','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00004','冷卻進水溫度','','&lt;','30','℃','','ADMIN','','2022-11-2403:37:42','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00005','冷卻出水溫度','','&lt;','60','℃','','ADMIN','','2022-11-2403:38:00','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00006','排氣溫度','65','~','100','℃','','ADMIN','','2022-11-2403:38:41','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00007','排氣壓力','5.5','~','6.5','kg/cm2','','ADMIN','','2022-11-2403:39:23','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00008','油位視窗','','&gt;','0.5','','','ADMIN','','2022-11-2403:39:43','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00009','油壓','1.5','~','2.5','kg/cm2','','ADMIN','','2022-11-2403:41:06','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00010','中間壓力','2.0','~','2.9','kg/cm2','','ADMIN','','2022-11-2403:41:36','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00011','過濾網','','&lt;','45','','','ADMIN','','2022-11-2403:42:21','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00012','後部冷卻出水溫度','','&lt;','60','℃','','ADMIN','','2022-11-2403:43:06','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00013','排氣溫度','','&lt;','55','℃','','ADMIN','','2022-11-2403:43:48','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('B00014','排氣壓力','5.8','~','7.0','kg/cm2','','ADMIN','','2022-11-2403:44:44','','','','','NULL','B'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00001','電流','','','','AMP.','','ADMIN','','2022-11-2403:46:52','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00002','油壓','140','~','200','O.P.','Psi','ADMIN','','2022-11-2403:47:25','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00003','高壓','85','~','145','H.P.','Psi','ADMIN','','2022-11-2403:48:08','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00004','低壓','28','~','60','L.P.','Psi','ADMIN','','2022-11-2403:48:34','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00005','冷凍水水溫','10','~','17','入','℃','ADMIN','','2022-11-2403:49:14','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00006','冷凍水水溫','7','~','12','出','℃','ADMIN','','2022-11-2403:49:39','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00007','冷凍水水壓','','','','入','kg/cm2','ADMIN','','2022-11-2403:51:04','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00008','冷凍水水壓','','','','出','kg/cm2','ADMIN','','2022-11-2403:51:29','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00009','冷卻水水溫','','&lt;','32','入','℃','ADMIN','','2022-11-2403:52:16','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00010','冷卻水水溫','','&lt;','37','出','℃','ADMIN','','2022-11-2403:52:42','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00011','冷卻水水壓','','','','入','kg/cm2','ADMIN','','2022-11-2403:56:29','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00012','冷卻水水壓','','','','出','kg/cm2','ADMIN','','2022-11-2403:56:52','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00013','壓縮機油位視窗','','&gt;','0.33','','','ADMIN','','2022-11-2403:57:58','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00014','壓縮機運轉效率','','','','%','','ADMIN','','2022-11-2403:58:24','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Insert Into CHECKITEMS (CK001,CK002,CK003,CK004,CK005,CK006,CK007,CK008,CK009,CK010,CK011,CK012,CK013,CK014,CK015,CK016) Values ('C00015','壓縮機油溫','','','','℃','','ADMIN','','2022-11-2403:58:39','','','','','NULL','C'）</t>
+  </si>
+  <si>
+    <t>Create Table MECHNUMBERS
+(
+MN001 nvarchar(20) NOT NULL,
+MN002 nvarchar(20) NULL,
+MN003 nvarchar(10) NULL,
+MN004 nvarchar(10) NULL,
+MN005 nvarchar(10) NULL,
+MN006 nvarchar(10) NULL,
+MN007 nvarchar(20) NULL,
+MN008 nvarchar(20) NULL,
+MN009 nvarchar(10) NULL,
+MN010 nvarchar(20) NULL,
+MN011 nvarchar(40) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_ALTAS40-1','阿特拉斯真空(40HP)NO:1','W3','A','ADMIN','','2022-11-2310:27:11','','','ALTAS40-1','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_ALTAS40-2','阿特拉斯真空(40HP)NO:2','W3','A','ADMIN','','2022-11-2310:28:09','','','ALTAS40-2','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_QC50-1','QC真空(50HP)NO:1','W3','A','ADMIN','','2022-11-2310:29:06','','','QC50-1','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_QC40-2','QC真空(40HP)NO:2','W3','A','ADMIN','','2022-11-2310:29:42','','','QC40-2','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_QC100','QC真空(100HP)','W3','A','ADMIN','','2022-11-2310:30:28','','','QC100','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_QC100','QC真空(100HP)','W3E','A','ADMIN','','2022-11-2310:35:01','','','QC100','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_HITACHI100V','日立100HP(V)','W3','B','ADMIN','','2022-11-2310:38:13','','','HITACHI100V','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_HITACHI100N','日立100HP(N)','W3','B','ADMIN','','2022-11-2310:40:40','','','HITACHI100N','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_FUSHENG200','復盛200HP','W6','B','ADMIN','','2022-11-2310:42:02','','','FUSHENG200','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_ZR-200','ZR-200','W3E','B','ADMIN','','2022-11-2310:43:03','','','ZR-200','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_HITACHI100N-1','日立100HP(N)','W3E','B','ADMIN','','2022-11-2310:49:29','','','HITACHI100N-1','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_HITACHI100N-2','日立100HP(N)','W3E','B','ADMIN','','2022-11-2310:49:34','','','HITACHI100N-2','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_HITACHI75N','日立75HP(N)','W3E','B','ADMIN','','2022-11-2310:49:59','','','HITACHI75N','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_AIRCONDITION','冷氣機','W3','C','ADMIN','','2022-11-2411:28:11','','','AIRCONDITION','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_AIRCONDITION','冷氣機','W3E','C','ADMIN','','2022-11-2411:28:13','','','AIRCONDITION','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_AIRCONDITION','冷氣機','W6','C','ADMIN','','2022-11-2411:28:15','','','AIRCONDITION','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00003','離峰','W3','D','ADMIN','','2022-11-2412:22:45','','','D00003','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00004','週六半尖峰','W3','D','ADMIN','','2022-11-2412:23:40','','','D00004','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00005','VCBMAIN','W3','D','ADMIN','','2022-11-2412:24:03','','','D00005','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00006','VCBTO','W3','D','ADMIN','','2022-11-2412:24:26','','','D00006','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00007','TR1BF~4F','W3','D','ADMIN','','2022-11-2412:25:46','','','D00007','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00008','TR2','W3','D','ADMIN','','2022-11-2412:26:06','','','D00008','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00009','TR3','W3','D','ADMIN','','2022-11-2412:37:20','','','D00009','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00010','TR4BF~4F','W3','D','ADMIN','','2022-11-2412:37:51','','','D00010','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00011','TR5','W3','D','ADMIN','','2022-11-2412:38:42','','','D00011','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00012','TR62FF/MA/M','W3','D','ADMIN','','2022-11-2412:39:03','','','D00012','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00013','TR73F','W3','D','ADMIN','','2022-11-2412:39:31','','','D00013','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00014','TR84F','W3','D','ADMIN','','2022-11-2412:39:58','','','D00014','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00020','TR14VCB4F','W3','D','ADMIN','','2022-11-2401:30:52','','','D00020','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00021','廢水廠','W3','D','ADMIN','','2022-11-2401:31:15','','','D00021','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00022','餐廳','W3','D','ADMIN','','2022-11-2401:31:36','','','D00022','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00023','RA08RF','W3','D','ADMIN','','2022-11-2401:32:10','','','D00023','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00024','廚房水錶','W3','D','ADMIN','','2022-11-2401:32:28','','','D00024','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00025','自來水錶','W3','D','ADMIN','','2022-11-2401:32:43','','','D00025','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00026','自來水錶(消防)','W3','D','ADMIN','','2022-11-2401:33:03','','','D00026','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00027','混床','W3','D','ADMIN','','2022-11-2401:33:13','','','D00027','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00028','NO.1250T','W3','D','ADMIN','','2022-11-2401:33:40','','','D00028','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00029','NO.2250T','W3','D','ADMIN','','2022-11-2401:34:13','','','D00029','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00030','NO.3250T','W3','D','ADMIN','','2022-11-2401:34:37','','','D00030','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00031','NO.4250T','W3','D','ADMIN','','2022-11-2401:35:00','','','D00031','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00032','NO.5500T','W3','D','ADMIN','','2022-11-2401:35:17','','','D00032','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00033','NO.6500T','W3','D','ADMIN','','2022-11-2401:35:38','','','D00033','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00034','NO.7500T','W3','D','ADMIN','','2022-11-2401:36:21','','','D00034','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00035','NO.1BD','W3','D','ADMIN','','2022-11-2402:02:16','','','D00035','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00036','NO.2BD','W3','D','ADMIN','','2022-11-2402:02:35','','','D00036','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00037','NO.4水封','W3','D','ADMIN','','2022-11-2402:03:16','','','D00037','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00038','NO.5水封','W3','D','ADMIN','','2022-11-2402:03:36','','','D00038','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00039','ZW225(1F)','W3','D','ADMIN','','2022-11-2402:04:27','','','D00039','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00040','720T軟水','W3','D','ADMIN','','2022-11-2402:05:06','','','D00040','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00041','720T軟水','W3','D','ADMIN','','2022-11-2402:06:07','','','D00041','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00042','480T軟水','W3','D','ADMIN','','2022-11-2402:06:54','','','D00042','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00043','1F理水','W3','D','ADMIN','','2022-11-2402:12:59','','','D00043','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00044','1F自來水','W3','D','ADMIN','','2022-11-2402:13:12','','','D00044','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00045','2F理水','W3','D','ADMIN','','2022-11-2402:13:24','','','D00045','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00046','2F自來水','W3','D','ADMIN','','2022-11-2402:13:38','','','D00046','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00047','3F理水','W3','D','ADMIN','','2022-11-2402:13:51','','','D00047','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00048','3F自來水','W3','D','ADMIN','','2022-11-2402:14:02','','','D00048','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00049','4F自來水','W3','D','ADMIN','','2022-11-2402:14:17','','','D00049','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00001','尖峰','W3','D','ADMIN','','2022-11-2412:06:32','','','D00001','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00002','平日半尖峰','W3','D','ADMIN','','2022-11-2412:16:56','','','D00002','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00015','TR9VCB1F','W3','D','ADMIN','','2022-11-2412:48:25','','','D00015','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00016','TR10VCB','W3','D','ADMIN','','2022-11-2412:48:50','','','D00016','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00017','TR11VCB1F','W3','D','ADMIN','','2022-11-2412:49:34','','','D00017','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00018','TR12VCB1F','W3','D','ADMIN','','2022-11-2412:50:03','','','D00018','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00019','TR13VCB1F','W3','D','ADMIN','','2022-11-2412:50:29','','','D00019','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3_D00050','RO水錶','W3','D','ADMIN','','2022-11-2402:14:32','','','D00050','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00001','尖峰','W3E','D','ADMIN','','2022-11-2402:15:13','','','D00001','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00002','平日半尖峰','W3E','D','ADMIN','','2022-11-2402:15:30','','','D00002','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00003','離峰','W3E','D','ADMIN','','2022-11-2402:20:30','','','D00003','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00004','週六半尖峰','W3E','D','ADMIN','','2022-11-2402:20:37','','','D00004','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00005','週六半尖峰','W3E','D','ADMIN','','2022-11-2402:20:47','','','D00005','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00006','VCBMAIN','W3E','D','ADMIN','','2022-11-2402:20:56','','','D00006','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00007','VCB1TR1','W3E','D','ADMIN','','2022-11-2402:21:59','','','D00007','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00008','VCB2TR2','W3E','D','ADMIN','','2022-11-2402:22:26','','','D00008','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00009','VCB3TR34F','W3E','D','ADMIN','','2022-11-2402:23:03','','','D00009','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00010','VCB4TR4','W3E','D','ADMIN','','2022-11-2402:23:30','','','D00010','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00011','VCB5TR54F','W3E','D','ADMIN','','2022-11-2402:23:57','','','D00011','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00012','VCB6TR63F','W3E','D','ADMIN','','2022-11-2402:24:37','','','D00012','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00013','VCB7TR7','W3E','D','ADMIN','','2022-11-2402:24:58','','','D00013','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00014','VCB8TR8','W3E','D','ADMIN','','2022-11-2402:25:17','','','D00014','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00015','VCB9TR9','W3E','D','ADMIN','','2022-11-2402:25:26','','','D00015','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00016','尖峰','W3E','D','ADMIN','','2022-11-2402:51:32','','','D00016','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00017','平日半尖峰','W3E','D','ADMIN','','2022-11-2402:51:52','','','D00017','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00018','離峰','W3E','D','ADMIN','','2022-11-2402:52:03','','','D00018','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00019','週六半尖峰','W3E','D','ADMIN','','2022-11-2402:52:11','','','D00019','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00020','VCBMAIN','W3E','D','ADMIN','','2022-11-2402:52:20','','','D00020','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00021','VCB1TR1','W3E','D','ADMIN','','2022-11-2402:52:41','','','D00021','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00022','VCB2TR2','W3E','D','ADMIN','','2022-11-2402:53:33','','','D00022','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00023','VCB3TR32F','W3E','D','ADMIN','','2022-11-2402:54:04','','','D00023','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00024','VCB4TR43F','W3E','D','ADMIN','','2022-11-2402:54:33','','','D00024','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00025','VCB5TR53F','W3E','D','ADMIN','','2022-11-2402:55:02','','','D00025','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00026','VCB6TR62F','W3E','D','ADMIN','','2022-11-2402:55:43','','','D00026','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00027','VCB7TR71F','W3E','D','ADMIN','','2022-11-2402:56:39','','','D00027','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00028','VCB8TR81F','W3E','D','ADMIN','','2022-11-2402:57:08','','','D00028','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00029','VCB9TR91F','W3E','D','ADMIN','','2022-11-2402:59:36','','','D00029','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00030','VCB10TR91F','W3E','D','ADMIN','','2022-11-2403:00:06','','','D00030','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00031','VCB11TR112F','W3E','D','ADMIN','','2022-11-2403:00:31','','','D00031','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00032','VCB12TR124F','W3E','D','ADMIN','','2022-11-2403:01:10','','','D00032','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00033','VCB13TR132F','W3E','D','ADMIN','','2022-11-2403:01:41','','','D00033','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00034','W3E廢水廠','W3E','D','ADMIN','','2022-11-2403:04:13','','','D00034','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00035','NO.1500T','W3E','D','ADMIN','','2022-11-2403:04:47','','','D00035','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00036','NO.2500T','W3E','D','ADMIN','','2022-11-2403:05:01','','','D00036','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00037','NO.3500T','W3E','D','ADMIN','','2022-11-2403:05:25','','','D00037','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00038','NO.4250T','W3E','D','ADMIN','','2022-11-2403:05:49','','','D00038','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00039','NO.1油式100HP','W3E','D','ADMIN','','2022-11-2403:06:32','','','D00039','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00040','ZR200(RF)','W3E','D','ADMIN','','2022-11-2403:06:54','','','D00040','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00041','1F理水','W3E','D','ADMIN','','2022-11-2403:07:20','','','D00041','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00042','2F理水','W3E','D','ADMIN','','2022-11-2403:07:31','','','D00042','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00043','3F理水','W3E','D','ADMIN','','2022-11-2403:07:39','','','D00043','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00044','4F理水','W3E','D','ADMIN','','2022-11-2403:07:58','','','D00044','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00045','A軟水','W3E','D','ADMIN','','2022-11-2403:08:28','','','D00045','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00046','B軟水','W3E','D','ADMIN','','2022-11-2403:08:52','','','D00046','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00047','C軟水','W3E','D','ADMIN','','2022-11-2403:09:06','','','D00047','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00048','A理水','W3E','D','ADMIN','','2022-11-2403:09:20','','','D00048','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00049','B理水','W3E','D','ADMIN','','2022-11-2403:09:27','','','D00049','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00050','C理水','W3E','D','ADMIN','','2022-11-2403:09:34','','','D00050','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00051','ARO水錶','W3E','D','ADMIN','','2022-11-2403:09:51','','','D00051','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00052','BRO水錶','W3E','D','ADMIN','','2022-11-2403:10:01','','','D00052','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00053','自來水錶','W3E','D','ADMIN','','2022-11-2403:10:50','','','D00053','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W3E_D00054','自來水錶','W3E','D','ADMIN','','2022-11-2403:11:05','','','D00054','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00001','尖峰','W6','D','ADMIN','','2022-11-2403:11:25','','','D00001','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00002','半尖峰','W6','D','ADMIN','','2022-11-2403:11:41','','','D00002','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00003','離峰','W6','D','ADMIN','','2022-11-2403:11:50','','','D00003','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00004','VCBMAIN','W6','D','ADMIN','','2022-11-2403:12:05','','','D00004','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00005','VCB1TR1','W6','D','ADMIN','','2022-11-2403:12:45','','','D00005','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00006','VCB2TR2','W6','D','ADMIN','','2022-11-2403:13:16','','','D00006','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00007','VCB3TR3','W6','D','ADMIN','','2022-11-2403:13:44','','','D00007','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00008','VCB4TR4','W6','D','ADMIN','','2022-11-2403:14:12','','','D00008','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00009','NO.1250T','W6','D','ADMIN','','2022-11-2403:14:37','','','D00009','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00010','NO.2250T','W6','D','ADMIN','','2022-11-2403:14:53','','','D00010','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00011','廢水液位','W6','D','ADMIN','','2022-11-2403:15:21','','','D00011','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00012','RO水質','W6','D','ADMIN','','2022-11-2403:15:38','','','D00012','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00013','RO水錶','W6','D','ADMIN','','2022-11-2403:15:47','','','D00013','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00014','軟水','W6','D','ADMIN','','2022-11-2403:15:59','','','D00014','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00015','自來水','W6','D','ADMIN','','2022-11-2403:16:08','','','D00015','')</t>
+  </si>
+  <si>
+    <t>Insert Into MECHNUMBERS (MN001,MN002,MN003,MN004,MN005,MN006,MN007,MN008,MN009,MN010,MN011) Values ('W6_D00016','民生用水','W6','D','ADMIN','','2022-11-2403:16:35','','','D00016','')</t>
+  </si>
+  <si>
+    <t>Create Table CATEGORYS
+(
+CG001 nvarchar(10) NOT NULL,
+CG002 nvarchar(20) NULL,
+CG003 nvarchar(10) NULL,
+CG004 nvarchar(10) NULL,
+CG005 nvarchar(20) NULL,
+CG006 nvarchar(20) NULL,
+CG007 nvarchar(10) NULL,
+CG008 nvarchar(20) NULL,
+CG009 nvarchar(40) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MN001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK007</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">檢查項目代號 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查項目名稱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table COMPRESSEDAIR_HEADS 
+(
+CAH001  nvarchar(10),
+CAH002  nvarchar(10),
+CAH003  nvarchar(10),
+CAH004  nvarchar(10),
+CAH005  nvarchar(20),
+CAH006  nvarchar(10),
+CAH007  nvarchar(20),
+CAH008  nvarchar(10),
+CAH009  nvarchar(20),
+CAH010  nvarchar(40)
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table VACUUM_HEADS 
+(
+VMH001  nvarchar(10),
+VMH002  nvarchar(10),
+VMH003  nvarchar(10),
+VMH004  nvarchar(10),
+VMH005  nvarchar(20),
+VMH006  nvarchar(10),
+VMH007  nvarchar(20),
+VMH008  nvarchar(10),
+VMH009  nvarchar(20),
+VMH010  nvarchar(40)
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAH001</t>
+  </si>
+  <si>
+    <t>CAH002</t>
+  </si>
+  <si>
+    <t>CAH003</t>
+  </si>
+  <si>
+    <t>CAH004</t>
+  </si>
+  <si>
+    <t>CAH005</t>
+  </si>
+  <si>
+    <t>CAH006</t>
+  </si>
+  <si>
+    <t>CAH007</t>
+  </si>
+  <si>
+    <t>CAH008</t>
+  </si>
+  <si>
+    <t>CAH009</t>
+  </si>
+  <si>
+    <t>CAH010</t>
+  </si>
+  <si>
+    <t>Create Table COMPRESSEDAIR_BODYS 
+(
+CAB001  nvarchar(10),
+CAB002  nvarchar(10),
+CAB003  nvarchar(10),
+CAB004  nvarchar(20),
+CAB005  nvarchar(10),
+CAB006  nvarchar(1),
+CAB007  nvarchar(10),
+CAB008  nvarchar(40),
+CAB009  nvarchar(40),
+CAB010  nvarchar(10),
+CAB011  nvarchar(20),
+CAB012  nvarchar(10),
+CAB013  nvarchar(20),
+CAB014  nvarchar(40)
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAB001</t>
+  </si>
+  <si>
+    <t>CAB002</t>
+  </si>
+  <si>
+    <t>CAB003</t>
+  </si>
+  <si>
+    <t>CAB004</t>
+  </si>
+  <si>
+    <t>CAB005</t>
+  </si>
+  <si>
+    <t>CAB006</t>
+  </si>
+  <si>
+    <t>CAB007</t>
+  </si>
+  <si>
+    <t>CAB008</t>
+  </si>
+  <si>
+    <t>CAB009</t>
+  </si>
+  <si>
+    <t>CAB010</t>
+  </si>
+  <si>
+    <t>CAB011</t>
+  </si>
+  <si>
+    <t>CAB012</t>
+  </si>
+  <si>
+    <t>CAB013</t>
+  </si>
+  <si>
+    <t>CAB014</t>
+  </si>
+  <si>
+    <t>Create Table VACUUM_BODYS 
+(
+VMB001  nvarchar(10),
+VMB002  nvarchar(10),
+VMB003  nvarchar(10),
+VMB004  nvarchar(20),
+VMB005  nvarchar(10),
+VMB006  nvarchar(1),
+VMB007  nvarchar(10),
+VMB008  nvarchar(40),
+VMB009  nvarchar(40),
+VMB010  nvarchar(10),
+VMB011  nvarchar(20),
+VMB012  nvarchar(10),
+VMB013  nvarchar(20),
+VMB014  nvarchar(40)
 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2219,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+      <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2246,7 +3146,7 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29.5" x14ac:dyDescent="0.4">
@@ -2285,9 +3185,6 @@
         <v>8</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="12" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
@@ -2304,9 +3201,6 @@
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="12" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
@@ -2361,6 +3255,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2397,14 +3301,14 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="G2" s="17" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2427,185 +3331,185 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C5" s="8">
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C6" s="6">
         <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C7" s="8">
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C8" s="6">
         <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C9" s="8">
         <v>10</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C10" s="6">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="14" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C11" s="8">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="14" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C13" s="8">
         <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C14" s="6">
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -2614,39 +3518,39 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C15" s="6">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="E15" s="6"/>
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C16" s="6">
         <v>10</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="E16" s="6"/>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>6</v>
@@ -2655,14 +3559,14 @@
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E17" s="6"/>
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>6</v>
@@ -2671,55 +3575,55 @@
         <v>20</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="E18" s="6"/>
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C19" s="6">
         <v>10</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E19" s="9"/>
       <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C20" s="6">
         <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E20" s="6"/>
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C21" s="6">
         <v>40</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E21" s="8"/>
       <c r="G21" s="17"/>
@@ -2729,14 +3633,14 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="23" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
       <c r="G24" s="17" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -2747,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
@@ -2759,16 +3663,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="13" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C26" s="8">
         <v>10</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>17</v>
@@ -2780,19 +3684,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="13" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C27" s="8">
         <v>10</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27">
@@ -2801,16 +3705,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C28" s="6">
         <v>10</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="E28" s="6"/>
       <c r="G28" s="17"/>
@@ -2820,16 +3724,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C29" s="6">
         <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="E29" s="6"/>
       <c r="G29" s="17"/>
@@ -2839,16 +3743,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C30" s="10">
         <v>10</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E30" s="6"/>
       <c r="G30" s="17"/>
@@ -2858,16 +3762,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="E31" s="6"/>
       <c r="G31" s="17"/>
@@ -2877,16 +3781,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C32" s="10">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E32" s="6"/>
       <c r="G32" s="17"/>
@@ -2896,87 +3800,87 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C33" s="6">
         <v>40</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="E33" s="6"/>
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C34" s="6">
         <v>40</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E34" s="6"/>
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="15" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C35" s="10">
         <v>10</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E35" s="6"/>
       <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C36" s="6">
         <v>10</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="E36" s="6"/>
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C37" s="6">
         <v>10</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="E37" s="6"/>
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>6</v>
@@ -2985,14 +3889,14 @@
         <v>20</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E38" s="9"/>
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>6</v>
@@ -3001,55 +3905,55 @@
         <v>20</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="E39" s="9"/>
       <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C40" s="6">
         <v>10</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E40" s="6"/>
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="5" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C41" s="6">
         <v>20</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E41" s="8"/>
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="5" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C42" s="6">
         <v>40</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E42" s="8"/>
       <c r="G42" s="17"/>
@@ -3071,10 +3975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A17" sqref="A17:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3087,7 +3991,7 @@
     <col min="7" max="7" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
@@ -3096,10 +4000,10 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29.5" x14ac:dyDescent="0.4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3117,9 +4021,9 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
@@ -3134,13 +4038,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="I3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>13</v>
@@ -3153,13 +4054,10 @@
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="17"/>
-      <c r="I4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -3172,13 +4070,10 @@
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="17"/>
-      <c r="I5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
@@ -3193,11 +4088,8 @@
         <v>17</v>
       </c>
       <c r="G6" s="17"/>
-      <c r="I6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>51</v>
       </c>
@@ -3212,11 +4104,8 @@
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="17"/>
-      <c r="I7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>52</v>
       </c>
@@ -3231,13 +4120,10 @@
       </c>
       <c r="E8" s="8"/>
       <c r="G8" s="17"/>
-      <c r="I8" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -3250,16 +4136,13 @@
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="17"/>
-      <c r="I9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C10" s="6">
         <v>20</v>
@@ -3269,16 +4152,13 @@
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="17"/>
-      <c r="I10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C11" s="6">
         <v>20</v>
@@ -3288,11 +4168,8 @@
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="17"/>
-      <c r="I11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>55</v>
       </c>
@@ -3308,7 +4185,7 @@
       <c r="E12" s="6"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
@@ -3324,9 +4201,9 @@
       <c r="E13" s="6"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>6</v>
@@ -3340,8 +4217,53 @@
       <c r="E14" s="6"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G15" s="17"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3355,10 +4277,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3371,7 +4293,7 @@
     <col min="7" max="7" width="34.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -3380,10 +4302,10 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29.5" x14ac:dyDescent="0.4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3401,9 +4323,9 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -3412,19 +4334,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="I3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -3433,15 +4352,12 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="18"/>
-      <c r="I4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -3456,13 +4372,10 @@
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="18"/>
-      <c r="I5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>26</v>
@@ -3476,7 +4389,7 @@
       <c r="E6" s="9"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
@@ -3487,14 +4400,14 @@
         <v>20</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -3508,7 +4421,7 @@
       <c r="E8" s="8"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
@@ -3524,7 +4437,7 @@
       <c r="E9" s="6"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>60</v>
       </c>
@@ -3540,7 +4453,7 @@
       <c r="E10" s="6"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -3556,7 +4469,7 @@
       <c r="E11" s="6"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3564,8 +4477,23 @@
       <c r="E12" s="6"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3580,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3595,6 +4523,7 @@
     <col min="5" max="5" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" customWidth="1"/>
     <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="8" max="8" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -3606,7 +4535,7 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>341</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -3629,7 +4558,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
@@ -3638,7 +4567,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -3647,7 +4576,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
@@ -3656,7 +4585,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="17"/>
@@ -3780,6 +4709,26 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="G12" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>324</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3793,10 +4742,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3818,7 +4767,7 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
@@ -3841,7 +4790,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>308</v>
+        <v>633</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>34</v>
@@ -3850,7 +4799,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>340</v>
+        <v>639</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -3859,7 +4808,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>311</v>
+        <v>634</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>34</v>
@@ -3868,14 +4817,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>121</v>
+        <v>640</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>299</v>
+        <v>635</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>6</v>
@@ -3884,14 +4833,14 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>42</v>
@@ -3900,14 +4849,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>43</v>
@@ -3916,14 +4865,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>312</v>
+        <v>636</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>42</v>
@@ -3932,14 +4881,14 @@
         <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>301</v>
+        <v>637</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>313</v>
+        <v>638</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>42</v>
@@ -3955,7 +4904,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -3964,14 +4913,14 @@
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>34</v>
@@ -3980,7 +4929,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="E11" s="9"/>
       <c r="G11" s="17"/>
@@ -3996,14 +4945,14 @@
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
@@ -4012,7 +4961,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="E13" s="8"/>
       <c r="G13" s="17"/>
@@ -4067,7 +5016,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>6</v>
@@ -4076,33 +5025,863 @@
         <v>10</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="C18" s="6">
         <v>10</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G19" s="17"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>491</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4117,10 +5896,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -4142,7 +5921,7 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
       <c r="G1" s="17" t="s">
-        <v>352</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
@@ -4165,7 +5944,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>353</v>
+        <v>632</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>46</v>
@@ -4174,7 +5953,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>47</v>
@@ -4192,14 +5971,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>631</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>46</v>
@@ -4208,7 +5987,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -4217,7 +5996,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>630</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>46</v>
@@ -4226,7 +6005,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
@@ -4235,7 +6014,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>6</v>
@@ -4244,14 +6023,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="E7" s="6"/>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>46</v>
@@ -4260,14 +6039,14 @@
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="E8" s="6"/>
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -4276,14 +6055,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="E9" s="6"/>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -4292,14 +6071,14 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>48</v>
@@ -4308,14 +6087,14 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="E11" s="9"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -4331,7 +6110,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>6</v>
@@ -4374,6 +6153,686 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>628</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4390,13 +6849,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
@@ -4409,7 +6868,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -4426,17 +6885,17 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
       <c r="G4" s="17" t="s">
-        <v>330</v>
+        <v>641</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>331</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -4460,111 +6919,111 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>643</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G6" s="17"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>109</v>
+        <v>644</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G7" s="17"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>112</v>
+        <v>645</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" s="6">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G8" s="17"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>118</v>
+        <v>646</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C9" s="6">
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G9" s="17"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>122</v>
+        <v>647</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C10" s="6">
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G10" s="17"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>126</v>
+        <v>648</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="17"/>
@@ -4572,7 +7031,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>130</v>
+        <v>649</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -4581,7 +7040,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E12" s="6"/>
       <c r="G12" s="17"/>
@@ -4589,16 +7048,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>135</v>
+        <v>650</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C13" s="6">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E13" s="9"/>
       <c r="G13" s="17"/>
@@ -4606,16 +7065,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>139</v>
+        <v>651</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C14" s="6">
         <v>20</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E14" s="6"/>
       <c r="G14" s="17"/>
@@ -4623,16 +7082,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>142</v>
+        <v>652</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C15" s="6">
         <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E15" s="8"/>
       <c r="G15" s="17"/>
@@ -4663,17 +7122,17 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="G21" s="17" t="s">
-        <v>332</v>
+        <v>653</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>333</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -4684,7 +7143,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
@@ -4697,54 +7156,54 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>105</v>
+        <v>654</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C23" s="6">
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G23" s="17"/>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>111</v>
+        <v>655</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C24" s="6">
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G24" s="17"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>115</v>
+        <v>656</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C25" s="6">
         <v>10</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E25" s="6"/>
       <c r="G25" s="17"/>
@@ -4752,16 +7211,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>120</v>
+        <v>657</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C26" s="6">
         <v>20</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E26" s="6"/>
       <c r="G26" s="17"/>
@@ -4769,16 +7228,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>124</v>
+        <v>658</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C27" s="10">
         <v>10</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E27" s="6"/>
       <c r="G27" s="17"/>
@@ -4786,16 +7245,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>128</v>
+        <v>659</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E28" s="6"/>
       <c r="G28" s="17"/>
@@ -4803,16 +7262,16 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>132</v>
+        <v>660</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C29" s="10">
         <v>10</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E29" s="6"/>
       <c r="G29" s="17"/>
@@ -4820,16 +7279,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>137</v>
+        <v>661</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C30" s="6">
         <v>40</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E30" s="6"/>
       <c r="G30" s="17"/>
@@ -4837,16 +7296,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>140</v>
+        <v>662</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C31" s="6">
         <v>40</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E31" s="6"/>
       <c r="G31" s="17"/>
@@ -4854,16 +7313,16 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>143</v>
+        <v>663</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C32" s="6">
         <v>10</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="E32" s="6"/>
       <c r="G32" s="17"/>
@@ -4871,7 +7330,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>145</v>
+        <v>664</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>6</v>
@@ -4880,7 +7339,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E33" s="9"/>
       <c r="G33" s="17"/>
@@ -4888,16 +7347,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>147</v>
+        <v>665</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C34" s="6">
         <v>10</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E34" s="6"/>
       <c r="G34" s="17"/>
@@ -4905,16 +7364,16 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
-        <v>148</v>
+        <v>666</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C35" s="6">
         <v>20</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E35" s="8"/>
       <c r="G35" s="17"/>
@@ -4922,16 +7381,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
-        <v>149</v>
+        <v>667</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C36" s="6">
         <v>40</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E36" s="8"/>
       <c r="G36" s="17"/>
@@ -4982,14 +7441,14 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="G3" s="17" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
@@ -5012,113 +7471,113 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C7" s="6">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C8" s="6">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C9" s="6">
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="E10" s="6"/>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -5127,55 +7586,55 @@
         <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="E11" s="6"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C12" s="6">
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E12" s="9"/>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C13" s="6">
         <v>20</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E13" s="6"/>
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C14" s="6">
         <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E14" s="8"/>
       <c r="G14" s="17"/>
@@ -5204,14 +7663,14 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="16" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="G20" s="17" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="29.5" x14ac:dyDescent="0.4">
@@ -5222,7 +7681,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
@@ -5234,169 +7693,169 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C22" s="6">
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C23" s="6">
         <v>10</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E23" s="6"/>
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C24" s="6">
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="E24" s="6"/>
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C25" s="6">
         <v>20</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="E25" s="6"/>
       <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="E26" s="6"/>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="E27" s="6"/>
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C28" s="10">
         <v>10</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="E28" s="6"/>
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C29" s="6">
         <v>40</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E29" s="6"/>
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C30" s="6">
         <v>40</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="E30" s="6"/>
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="E31" s="6"/>
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>6</v>
@@ -5405,55 +7864,55 @@
         <v>20</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="E32" s="6"/>
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C33" s="6">
         <v>10</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E33" s="9"/>
       <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C34" s="6">
         <v>20</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E34" s="6"/>
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C35" s="6">
         <v>40</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E35" s="8"/>
       <c r="G35" s="17"/>
@@ -5493,14 +7952,14 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="H3" s="17" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="29.5" x14ac:dyDescent="0.4">
@@ -5523,77 +7982,77 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C5" s="6">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C7" s="6">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C8" s="6">
         <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="E8" s="6"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -5602,55 +8061,55 @@
         <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E9" s="6"/>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C10" s="6">
         <v>10</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E10" s="9"/>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C11" s="6">
         <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E11" s="6"/>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C12" s="6">
         <v>40</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E12" s="8"/>
       <c r="H12" s="17"/>
@@ -5679,14 +8138,14 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="16" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="H18" s="17" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29.5" x14ac:dyDescent="0.4">
@@ -5697,7 +8156,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>4</v>
@@ -5709,169 +8168,169 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C20" s="6">
         <v>10</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C21" s="6">
         <v>10</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="E21" s="6"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C22" s="6">
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="E22" s="6"/>
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C23" s="6">
         <v>20</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="E23" s="6"/>
       <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C24" s="10">
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E24" s="6"/>
       <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="E25" s="6"/>
       <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="E26" s="6"/>
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C27" s="6">
         <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="E27" s="6"/>
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C28" s="6">
         <v>40</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E28" s="6"/>
       <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C29" s="6">
         <v>10</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="E29" s="6"/>
       <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>6</v>
@@ -5880,55 +8339,55 @@
         <v>20</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="E30" s="6"/>
       <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C31" s="6">
         <v>10</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E31" s="9"/>
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C32" s="6">
         <v>20</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E32" s="6"/>
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C33" s="6">
         <v>40</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="E33" s="8"/>
       <c r="H33" s="17"/>

--- a/P22142_PC(國巨)/規格/DB_Server table V1.0.0.xlsx
+++ b/P22142_PC(國巨)/規格/DB_Server table V1.0.0.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EA9924-DE37-469F-A800-7B5C60664379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="732" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="權限基本資料" sheetId="1" r:id="rId1"/>
@@ -2375,27 +2374,6 @@
     <t>Insert into VACUUM_BODYS Values (6,'A00017','進水溫度','','&lt;','15','℃','','ADMIN','2022-11-24','','','','N');</t>
   </si>
   <si>
-    <t>Create Table VACUUM_BODYS
-(
-VMB001  bigint NOT NULL,
-VMB002  bigint IDENTITY(1,1) NOT NULL PRIMARY KEY,
-VMB003  nvarchar(20) NULL,
-VMB004  nvarchar(20) NULL,
-VMB005  nvarchar(10) NULL,
-VMB006  nvarchar(1) NULL,
-VMB007  nvarchar(10) NULL,
-VMB008  nvarchar(40) NULL,
-VMB009  nvarchar(40) NULL,
-VMB010  nvarchar(10) NULL,
-VMB011  nvarchar(20) NULL,
-VMB012  nvarchar(10) NULL,
-VMB013  nvarchar(20) NULL,
-VMB014  nvarchar(40) NULL,
-VMB015 nvarchar(3) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bigint</t>
   </si>
   <si>
@@ -2564,48 +2542,6 @@
   </si>
   <si>
     <t>Insert into COMPRESSEDAIR_BODYS Values (7,'B00008','油位視窗','','&gt;','0.5','','','ADMIN','2022-11-24','','','','N');</t>
-  </si>
-  <si>
-    <t>Create Table COMPRESSEDAIR_BODYS 
-(
-CAB001  bigint NOT NULL,
-CAB002  bigint IDENTITY(1,1) NOT NULL PRIMARY KEY,
-CAB003  nvarchar(20) NULL,
-CAB004  nvarchar(20) NULL,
-CAB005  nvarchar(10) NULL,
-CAB006  nvarchar(1) NULL,
-CAB007  nvarchar(10) NULL,
-CAB008  nvarchar(40) NULL,
-CAB009  nvarchar(40) NULL,
-CAB010  nvarchar(10) NULL,
-CAB011  nvarchar(20) NULL,
-CAB012  nvarchar(10) NULL,
-CAB013  nvarchar(20) NULL,
-CAB014  nvarchar(40) NULL,
-CAB015 nvarchar(3) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table COLDAIR_BODYS 
-(
-COB001  bigint NOT NULL,
-COB002  bigint IDENTITY(1,1) NOT NULL PRIMARY KEY,
-COB003  nvarchar(20) NULL,
-COB004  nvarchar(20) NULL,
-COB005  nvarchar(10) NULL,
-COB006  nvarchar(1) NULL,
-COB007  nvarchar(10) NULL,
-COB008  nvarchar(40) NULL,
-COB009  nvarchar(40) NULL,
-COB010  nvarchar(10) NULL,
-COB011  nvarchar(20) NULL,
-COB012  nvarchar(10) NULL,
-COB013  nvarchar(20) NULL,
-COB014  nvarchar(40) NULL,
-COB015  nvarchar(3) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COLDAIR_BODYS</t>
@@ -3146,27 +3082,6 @@
 WEH007  nvarchar(20) NULL,
 WEH008  nvarchar(40) NULL,
 WEH009  nvarchar(3) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Table WATERELC_BODYS
-(
-WEB001  bigint NOT NULL,
-WEB002  bigint NOT NULL PRIMARY KEY,
-WEB003  nvarchar(20) NULL,
-WEB004  nvarchar(20) NULL,
-WEB005  nvarchar(10) NULL,
-WEB006  nvarchar(1) NULL,
-WEB007  nvarchar(10) NULL,
-WEB008  nvarchar(40) NULL,
-WEB009  nvarchar(40) NULL,
-WEB010  nvarchar(10) NULL,
-WEB011  nvarchar(20) NULL,
-WEB012  nvarchar(10) NULL,
-WEB013  nvarchar(20) NULL,
-WEB014  nvarchar(40) NULL,
-WEB015  nvarchar(3) NULL
 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3312,23 +3227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Create Table COMPRESSEDAIR_HEADS 
-(
-CAH001  bigint NOT NULL PRIMARY KEY,
-CAH002  nvarchar(10) NULL,
-CAH003  nvarchar(10) NULL,
-CAH004  nvarchar(20) NULL,
-CAH005  nvarchar(20) NULL,
-CAH006  nvarchar(10) NULL,
-CAH007  nvarchar(20) NULL,
-CAH008  nvarchar(10) NULL,
-CAH009  nvarchar(20) NULL,
-CAH010  nvarchar(40) NULL,
-CAH011  nvarchar(3) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Insert into COMPRESSEDAIR_HEADS (CAH001,CAH002,CAH003,CAH004,CAH005,CAH006,CAH007,CAH008,CAH009,CAH010,CAH011) Values (1,'W3','B','W3_HITACHI100V','日立100HP(V)','ADMIN','2022/11/24','','','','Y');</t>
   </si>
   <si>
@@ -3348,23 +3246,6 @@
   </si>
   <si>
     <t>Insert into COMPRESSEDAIR_HEADS (CAH001,CAH002,CAH003,CAH004,CAH005,CAH006,CAH007,CAH008,CAH009,CAH010,CAH011) Values (7,'W6','B','W6_FUSHENG200','復盛200HP','ADMIN','2022/11/24','','','','Y');</t>
-  </si>
-  <si>
-    <t>Create Table COLDAIR_HEADS 
-(
-COH001  bigint NOT NULL PRIMARY KEY,
-COH002  nvarchar(10) NULL,
-COH003  nvarchar(10) NULL,
-COH004  nvarchar(20) NULL,
-COH005  nvarchar(20) NULL,
-COH006  nvarchar(10) NULL,
-COH007  nvarchar(20) NULL,
-COH008  nvarchar(10) NULL,
-COH009  nvarchar(20) NULL,
-COH010  nvarchar(40) NULL,
-COH011 nvarchar(3) NULL
-)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RDB010</t>
@@ -3402,6 +3283,90 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Create Table COMPRESSEDAIR_BODYS 
+(
+CAB001  bigint NOT NULL,
+CAB002  bigint NOT NULL PRIMARY KEY,
+CAB003  nvarchar(20) NULL,
+CAB004  nvarchar(20) NULL,
+CAB005  nvarchar(10) NULL,
+CAB006  nvarchar(1) NULL,
+CAB007  nvarchar(10) NULL,
+CAB008  nvarchar(40) NULL,
+CAB009  nvarchar(40) NULL,
+CAB010  nvarchar(10) NULL,
+CAB011  nvarchar(20) NULL,
+CAB012  nvarchar(10) NULL,
+CAB013  nvarchar(20) NULL,
+CAB014  nvarchar(40) NULL,
+CAB015 nvarchar(3) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table COLDAIR_BODYS 
+(
+COB001  bigint NOT NULL,
+COB002  bigint NOT NULL PRIMARY KEY,
+COB003  nvarchar(20) NULL,
+COB004  nvarchar(20) NULL,
+COB005  nvarchar(10) NULL,
+COB006  nvarchar(1) NULL,
+COB007  nvarchar(10) NULL,
+COB008  nvarchar(40) NULL,
+COB009  nvarchar(40) NULL,
+COB010  nvarchar(10) NULL,
+COB011  nvarchar(20) NULL,
+COB012  nvarchar(10) NULL,
+COB013  nvarchar(20) NULL,
+COB014  nvarchar(40) NULL,
+COB015  nvarchar(3) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table WATERELC_BODYS
+(
+WEB001  bigint NOT NULL,
+WEB002  bigint NOT NULL PRIMARY KEY,
+WEB003  nvarchar(20) NULL,
+WEB004  nvarchar(20) NULL,
+WEB005  nvarchar(10) NULL,
+WEB006  nvarchar(1) NULL,
+WEB007  nvarchar(10) NULL,
+WEB008  nvarchar(40) NULL,
+WEB009  nvarchar(40) NULL,
+WEB010  nvarchar(10) NULL,
+WEB011  nvarchar(20) NULL,
+WEB012  nvarchar(10) NULL,
+WEB013  nvarchar(20) NULL,
+WEB014  nvarchar(40) NULL,
+WEB015  nvarchar(3) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table VACUUM_BODYS
+(
+VMB001  bigint NOT NULL,
+VMB002  bigint NOT NULL PRIMARY KEY,
+VMB003  nvarchar(20) NULL,
+VMB004  nvarchar(20) NULL,
+VMB005  nvarchar(10) NULL,
+VMB006  nvarchar(1) NULL,
+VMB007  nvarchar(10) NULL,
+VMB008  nvarchar(40) NULL,
+VMB009  nvarchar(40) NULL,
+VMB010  nvarchar(10) NULL,
+VMB011  nvarchar(20) NULL,
+VMB012  nvarchar(10) NULL,
+VMB013  nvarchar(20) NULL,
+VMB014  nvarchar(40) NULL,
+VMB015 nvarchar(3) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CREATE TABLE VACUUM_HEADS
 (
 VMH001 bigint NOT NULL PRIMARY KEY,
@@ -3418,11 +3383,45 @@
 )</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Create Table COMPRESSEDAIR_HEADS 
+(
+CAH001  bigint NOT NULL PRIMARY KEY,
+CAH002  nvarchar(10) NULL,
+CAH003  nvarchar(10) NULL,
+CAH004  nvarchar(20) NULL,
+CAH005  nvarchar(20) NULL,
+CAH006  nvarchar(10) NULL,
+CAH007  nvarchar(20) NULL,
+CAH008  nvarchar(10) NULL,
+CAH009  nvarchar(20) NULL,
+CAH010  nvarchar(40) NULL,
+CAH011  nvarchar(3) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Table COLDAIR_HEADS 
+(
+COH001  bigint NOT NULL PRIMARY KEY,
+COH002  nvarchar(10) NULL,
+COH003  nvarchar(10) NULL,
+COH004  nvarchar(20) NULL,
+COH005  nvarchar(20) NULL,
+COH006  nvarchar(10) NULL,
+COH007  nvarchar(20) NULL,
+COH008  nvarchar(10) NULL,
+COH009  nvarchar(20) NULL,
+COH010  nvarchar(40) NULL,
+COH011 nvarchar(3) NULL
+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3688,7 +3687,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3746,7 +3745,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3779,26 +3778,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3831,23 +3813,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4023,26 +3988,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="60.625" customWidth="1"/>
-    <col min="8" max="8" width="61.125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" customWidth="1"/>
+    <col min="8" max="8" width="61.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>633</v>
       </c>
@@ -4051,10 +4016,10 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4072,7 +4037,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>41</v>
       </c>
@@ -4090,7 +4055,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>42</v>
       </c>
@@ -4106,7 +4071,7 @@
       <c r="E4" s="6"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4114,57 +4079,57 @@
       <c r="E5" s="6"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -4181,28 +4146,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.625" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>632</v>
       </c>
@@ -4211,10 +4176,10 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="G2" s="14" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4232,12 +4197,12 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>660</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
@@ -4248,7 +4213,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>427</v>
       </c>
@@ -4264,7 +4229,7 @@
       <c r="E5" s="6"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>428</v>
       </c>
@@ -4280,7 +4245,7 @@
       <c r="E6" s="6"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>658</v>
       </c>
@@ -4296,7 +4261,7 @@
       <c r="E7" s="6"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>429</v>
       </c>
@@ -4312,7 +4277,7 @@
       <c r="E8" s="6"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>430</v>
       </c>
@@ -4330,7 +4295,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>431</v>
       </c>
@@ -4348,7 +4313,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>432</v>
       </c>
@@ -4364,7 +4329,7 @@
       <c r="E11" s="6"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>433</v>
       </c>
@@ -4380,7 +4345,7 @@
       <c r="E12" s="6"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>434</v>
       </c>
@@ -4396,7 +4361,7 @@
       <c r="E13" s="6"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>435</v>
       </c>
@@ -4417,7 +4382,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>436</v>
       </c>
@@ -4433,7 +4398,7 @@
       <c r="E15" s="6"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>437</v>
       </c>
@@ -4449,7 +4414,7 @@
       <c r="E16" s="6"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>438</v>
       </c>
@@ -4465,7 +4430,7 @@
       <c r="E17" s="6"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>439</v>
       </c>
@@ -4481,7 +4446,7 @@
       <c r="E18" s="6"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>440</v>
       </c>
@@ -4497,7 +4462,7 @@
       <c r="E19" s="9"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>441</v>
       </c>
@@ -4513,7 +4478,7 @@
       <c r="E20" s="6"/>
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>442</v>
       </c>
@@ -4529,16 +4494,16 @@
       <c r="E21" s="8"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G24" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>661</v>
       </c>
@@ -4547,10 +4512,10 @@
       <c r="D26" s="21"/>
       <c r="E26" s="22"/>
       <c r="G26" s="14" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -4568,12 +4533,12 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>656</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
@@ -4587,12 +4552,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>413</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
@@ -4606,9 +4571,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>123</v>
@@ -4625,7 +4590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>414</v>
       </c>
@@ -4644,7 +4609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>415</v>
       </c>
@@ -4663,7 +4628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>416</v>
       </c>
@@ -4682,7 +4647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>417</v>
       </c>
@@ -4701,7 +4666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>418</v>
       </c>
@@ -4717,7 +4682,7 @@
       <c r="E35" s="6"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>419</v>
       </c>
@@ -4733,9 +4698,9 @@
       <c r="E36" s="6"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>123</v>
@@ -4749,7 +4714,7 @@
       <c r="E37" s="6"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>420</v>
       </c>
@@ -4765,7 +4730,7 @@
       <c r="E38" s="6"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>421</v>
       </c>
@@ -4781,7 +4746,7 @@
       <c r="E39" s="6"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>422</v>
       </c>
@@ -4797,7 +4762,7 @@
       <c r="E40" s="9"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>423</v>
       </c>
@@ -4813,7 +4778,7 @@
       <c r="E41" s="9"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>424</v>
       </c>
@@ -4829,7 +4794,7 @@
       <c r="E42" s="6"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>425</v>
       </c>
@@ -4845,7 +4810,7 @@
       <c r="E43" s="8"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>426</v>
       </c>
@@ -4861,9 +4826,9 @@
       <c r="E44" s="8"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>5</v>
@@ -4877,7 +4842,7 @@
       <c r="E45" s="8"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G46" s="15"/>
     </row>
   </sheetData>
@@ -4894,24 +4859,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>665</v>
       </c>
@@ -4920,10 +4885,10 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4941,7 +4906,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -4959,7 +4924,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>163</v>
       </c>
@@ -4975,7 +4940,7 @@
       <c r="E4" s="6"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -4991,7 +4956,7 @@
       <c r="E5" s="6"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -5009,7 +4974,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -5025,7 +4990,7 @@
       <c r="E7" s="6"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -5041,7 +5006,7 @@
       <c r="E8" s="8"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -5057,7 +5022,7 @@
       <c r="E9" s="6"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -5073,7 +5038,7 @@
       <c r="E10" s="6"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
@@ -5089,7 +5054,7 @@
       <c r="E11" s="6"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>634</v>
       </c>
@@ -5105,7 +5070,7 @@
       <c r="E12" s="6"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -5121,7 +5086,7 @@
       <c r="E13" s="6"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
@@ -5137,50 +5102,50 @@
       <c r="E14" s="6"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G15" s="14"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -5196,24 +5161,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>635</v>
       </c>
@@ -5222,10 +5187,10 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5243,7 +5208,7 @@
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>181</v>
       </c>
@@ -5261,7 +5226,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>164</v>
       </c>
@@ -5277,7 +5242,7 @@
       <c r="E4" s="6"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -5293,7 +5258,7 @@
       <c r="E5" s="6"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -5309,7 +5274,7 @@
       <c r="E6" s="9"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -5325,7 +5290,7 @@
       <c r="E7" s="6"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -5341,7 +5306,7 @@
       <c r="E8" s="8"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>50</v>
       </c>
@@ -5357,7 +5322,7 @@
       <c r="E9" s="6"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
@@ -5373,7 +5338,7 @@
       <c r="E10" s="6"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>52</v>
       </c>
@@ -5389,7 +5354,7 @@
       <c r="E11" s="6"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5397,20 +5362,20 @@
       <c r="E12" s="6"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -5427,26 +5392,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="60.625" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>637</v>
       </c>
@@ -5455,10 +5420,10 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5476,7 +5441,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>151</v>
       </c>
@@ -5494,7 +5459,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>638</v>
       </c>
@@ -5510,7 +5475,7 @@
       <c r="E4" s="6"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -5526,7 +5491,7 @@
       <c r="E5" s="6"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>409</v>
       </c>
@@ -5542,7 +5507,7 @@
       <c r="E6" s="9"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -5558,7 +5523,7 @@
       <c r="E7" s="6"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
@@ -5574,7 +5539,7 @@
       <c r="E8" s="8"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -5590,7 +5555,7 @@
       <c r="E9" s="6"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -5606,7 +5571,7 @@
       <c r="E10" s="6"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -5622,7 +5587,7 @@
       <c r="E11" s="6"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5630,22 +5595,22 @@
       <c r="E12" s="6"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>353</v>
       </c>
@@ -5661,24 +5626,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>666</v>
       </c>
@@ -5687,10 +5652,10 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5708,7 +5673,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>667</v>
       </c>
@@ -5726,7 +5691,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>321</v>
       </c>
@@ -5742,7 +5707,7 @@
       <c r="E4" s="6"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>322</v>
       </c>
@@ -5758,7 +5723,7 @@
       <c r="E5" s="6"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>159</v>
       </c>
@@ -5774,7 +5739,7 @@
       <c r="E6" s="6"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>161</v>
       </c>
@@ -5790,7 +5755,7 @@
       <c r="E7" s="6"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>323</v>
       </c>
@@ -5806,7 +5771,7 @@
       <c r="E8" s="6"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>325</v>
       </c>
@@ -5822,7 +5787,7 @@
       <c r="E9" s="6"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>160</v>
       </c>
@@ -5838,7 +5803,7 @@
       <c r="E10" s="6"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>157</v>
       </c>
@@ -5854,7 +5819,7 @@
       <c r="E11" s="9"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>391</v>
       </c>
@@ -5870,7 +5835,7 @@
       <c r="E12" s="6"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>158</v>
       </c>
@@ -5886,7 +5851,7 @@
       <c r="E13" s="8"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>392</v>
       </c>
@@ -5902,7 +5867,7 @@
       <c r="E14" s="6"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>393</v>
       </c>
@@ -5918,7 +5883,7 @@
       <c r="E15" s="6"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>394</v>
       </c>
@@ -5934,7 +5899,7 @@
       <c r="E16" s="6"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>182</v>
       </c>
@@ -5952,7 +5917,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>184</v>
       </c>
@@ -5970,7 +5935,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>457</v>
       </c>
@@ -5986,835 +5951,835 @@
       <c r="E19" s="6"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G20" s="14"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>620</v>
       </c>
@@ -6831,24 +6796,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>640</v>
       </c>
@@ -6857,10 +6822,10 @@
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="G1" s="14" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6878,7 +6843,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>646</v>
       </c>
@@ -6896,7 +6861,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -6912,7 +6877,7 @@
       <c r="E4" s="6"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>644</v>
       </c>
@@ -6930,7 +6895,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>645</v>
       </c>
@@ -6948,7 +6913,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
@@ -6964,7 +6929,7 @@
       <c r="E7" s="6"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>411</v>
       </c>
@@ -6980,7 +6945,7 @@
       <c r="E8" s="6"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>410</v>
       </c>
@@ -6996,7 +6961,7 @@
       <c r="E9" s="6"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>412</v>
       </c>
@@ -7012,7 +6977,7 @@
       <c r="E10" s="6"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>61</v>
       </c>
@@ -7028,7 +6993,7 @@
       <c r="E11" s="9"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -7044,7 +7009,7 @@
       <c r="E12" s="6"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -7060,7 +7025,7 @@
       <c r="E13" s="8"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>455</v>
       </c>
@@ -7076,7 +7041,7 @@
       <c r="E14" s="6"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7084,7 +7049,7 @@
       <c r="E15" s="6"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7092,689 +7057,689 @@
       <c r="E16" s="6"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>320</v>
       </c>
@@ -7791,33 +7756,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:O38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.625" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="60.625" customWidth="1"/>
-    <col min="17" max="17" width="9.25" customWidth="1"/>
-    <col min="18" max="18" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.21875" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>77</v>
       </c>
@@ -7840,30 +7805,30 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
     </row>
-    <row r="4" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
       <c r="G4" s="14" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="17" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="19"/>
       <c r="O4" s="14" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -7898,12 +7863,12 @@
       </c>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>641</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -7918,7 +7883,7 @@
         <v>669</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
@@ -7929,7 +7894,7 @@
       </c>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>390</v>
       </c>
@@ -7948,7 +7913,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="11"/>
       <c r="I7" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>5</v>
@@ -7964,7 +7929,7 @@
       </c>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>328</v>
       </c>
@@ -7999,7 +7964,7 @@
       </c>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>329</v>
       </c>
@@ -8034,7 +7999,7 @@
       </c>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>330</v>
       </c>
@@ -8069,7 +8034,7 @@
       </c>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>331</v>
       </c>
@@ -8100,7 +8065,7 @@
       <c r="M11" s="6"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>332</v>
       </c>
@@ -8131,7 +8096,7 @@
       <c r="M12" s="6"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>333</v>
       </c>
@@ -8162,7 +8127,7 @@
       <c r="M13" s="9"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>334</v>
       </c>
@@ -8193,7 +8158,7 @@
       <c r="M14" s="6"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>335</v>
       </c>
@@ -8224,7 +8189,7 @@
       <c r="M15" s="8"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>356</v>
       </c>
@@ -8255,7 +8220,7 @@
       <c r="M16" s="6"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -8270,7 +8235,7 @@
       <c r="M17" s="6"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -8282,16 +8247,16 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="21" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
       <c r="G21" s="14" t="s">
-        <v>761</v>
+        <v>957</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17" t="s">
@@ -8302,10 +8267,10 @@
       <c r="L21" s="18"/>
       <c r="M21" s="19"/>
       <c r="O21" s="14" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -8340,12 +8305,12 @@
       </c>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>336</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
@@ -8360,7 +8325,7 @@
         <v>402</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6" t="s">
@@ -8371,12 +8336,12 @@
       </c>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>337</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
@@ -8391,7 +8356,7 @@
         <v>647</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6" t="s">
@@ -8402,7 +8367,7 @@
       </c>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>338</v>
       </c>
@@ -8433,7 +8398,7 @@
       <c r="M25" s="6"/>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>339</v>
       </c>
@@ -8464,7 +8429,7 @@
       <c r="M26" s="6"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>340</v>
       </c>
@@ -8495,7 +8460,7 @@
       <c r="M27" s="6"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>341</v>
       </c>
@@ -8526,7 +8491,7 @@
       <c r="M28" s="6"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>342</v>
       </c>
@@ -8557,7 +8522,7 @@
       <c r="M29" s="6"/>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>343</v>
       </c>
@@ -8588,7 +8553,7 @@
       <c r="M30" s="6"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>344</v>
       </c>
@@ -8619,7 +8584,7 @@
       <c r="M31" s="6"/>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>345</v>
       </c>
@@ -8650,7 +8615,7 @@
       <c r="M32" s="6"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>346</v>
       </c>
@@ -8681,7 +8646,7 @@
       <c r="M33" s="9"/>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>347</v>
       </c>
@@ -8712,7 +8677,7 @@
       <c r="M34" s="6"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>348</v>
       </c>
@@ -8743,7 +8708,7 @@
       <c r="M35" s="8"/>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>349</v>
       </c>
@@ -8774,7 +8739,7 @@
       <c r="M36" s="8"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>358</v>
       </c>
@@ -8805,7 +8770,7 @@
       <c r="M37" s="8"/>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G38" s="14"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -8815,367 +8780,367 @@
       <c r="M38" s="11"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>707</v>
+      </c>
+      <c r="I41" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>946</v>
+      </c>
+      <c r="I42" t="s">
         <v>708</v>
       </c>
-      <c r="I41" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>947</v>
+      </c>
+      <c r="I43" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>948</v>
+      </c>
+      <c r="I44" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>949</v>
+      </c>
+      <c r="I45" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>950</v>
+      </c>
+      <c r="I46" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>951</v>
       </c>
-      <c r="I42" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="I47" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>952</v>
       </c>
-      <c r="I43" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>953</v>
-      </c>
-      <c r="I44" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>954</v>
-      </c>
-      <c r="I45" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>955</v>
-      </c>
-      <c r="I46" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>956</v>
-      </c>
-      <c r="I47" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I50" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>655</v>
       </c>
       <c r="I51" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="I52" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I53" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I54" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I55" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I56" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I57" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I58" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I59" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="I60" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I61" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I62" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I63" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I64" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I65" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I66" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I67" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I68" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I69" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I70" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I71" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I72" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I73" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I74" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I75" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I76" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I77" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I78" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I79" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I80" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I81" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I82" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I83" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I84" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>759</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -9197,41 +9162,41 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G37"/>
+      <selection activeCell="G3" sqref="G3:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.625" customWidth="1"/>
-    <col min="8" max="8" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="G3" s="14" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -9249,12 +9214,12 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>642</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -9265,7 +9230,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>444</v>
       </c>
@@ -9283,7 +9248,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>445</v>
       </c>
@@ -9301,7 +9266,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>446</v>
       </c>
@@ -9319,7 +9284,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>447</v>
       </c>
@@ -9337,7 +9302,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>448</v>
       </c>
@@ -9353,7 +9318,7 @@
       <c r="E10" s="6"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>449</v>
       </c>
@@ -9369,7 +9334,7 @@
       <c r="E11" s="6"/>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>450</v>
       </c>
@@ -9385,7 +9350,7 @@
       <c r="E12" s="9"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>451</v>
       </c>
@@ -9401,7 +9366,7 @@
       <c r="E13" s="6"/>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>452</v>
       </c>
@@ -9417,7 +9382,7 @@
       <c r="E14" s="8"/>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>453</v>
       </c>
@@ -9433,7 +9398,7 @@
       <c r="E15" s="6"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -9441,26 +9406,26 @@
       <c r="E16" s="6"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="G20" s="14" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -9478,12 +9443,12 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>360</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
@@ -9494,12 +9459,12 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>361</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
@@ -9508,7 +9473,7 @@
       <c r="E23" s="6"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>362</v>
       </c>
@@ -9524,7 +9489,7 @@
       <c r="E24" s="6"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>363</v>
       </c>
@@ -9540,7 +9505,7 @@
       <c r="E25" s="6"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>364</v>
       </c>
@@ -9556,7 +9521,7 @@
       <c r="E26" s="6"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>365</v>
       </c>
@@ -9572,7 +9537,7 @@
       <c r="E27" s="6"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>366</v>
       </c>
@@ -9588,7 +9553,7 @@
       <c r="E28" s="6"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>367</v>
       </c>
@@ -9604,7 +9569,7 @@
       <c r="E29" s="6"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>368</v>
       </c>
@@ -9620,7 +9585,7 @@
       <c r="E30" s="6"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>369</v>
       </c>
@@ -9636,7 +9601,7 @@
       <c r="E31" s="6"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>370</v>
       </c>
@@ -9652,7 +9617,7 @@
       <c r="E32" s="6"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>371</v>
       </c>
@@ -9668,7 +9633,7 @@
       <c r="E33" s="9"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>372</v>
       </c>
@@ -9684,7 +9649,7 @@
       <c r="E34" s="6"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>373</v>
       </c>
@@ -9700,7 +9665,7 @@
       <c r="E35" s="8"/>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>374</v>
       </c>
@@ -9715,257 +9680,257 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G37" s="14"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>805</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -9981,36 +9946,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="H18" sqref="H18:H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.625" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="H3" s="14" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -10028,12 +9993,12 @@
       </c>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>643</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
@@ -10044,7 +10009,7 @@
       </c>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>626</v>
       </c>
@@ -10062,7 +10027,7 @@
       </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>627</v>
       </c>
@@ -10080,7 +10045,7 @@
       </c>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>375</v>
       </c>
@@ -10096,7 +10061,7 @@
       <c r="E8" s="6"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>376</v>
       </c>
@@ -10112,7 +10077,7 @@
       <c r="E9" s="6"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>377</v>
       </c>
@@ -10128,7 +10093,7 @@
       <c r="E10" s="9"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>378</v>
       </c>
@@ -10144,7 +10109,7 @@
       <c r="E11" s="6"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>379</v>
       </c>
@@ -10160,7 +10125,7 @@
       <c r="E12" s="8"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>631</v>
       </c>
@@ -10176,7 +10141,7 @@
       <c r="E13" s="6"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -10184,26 +10149,26 @@
       <c r="E14" s="6"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="H18" s="14" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -10221,12 +10186,12 @@
       </c>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
@@ -10237,12 +10202,12 @@
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>380</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
@@ -10253,7 +10218,7 @@
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>628</v>
       </c>
@@ -10269,7 +10234,7 @@
       <c r="E22" s="6"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>629</v>
       </c>
@@ -10285,7 +10250,7 @@
       <c r="E23" s="6"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>381</v>
       </c>
@@ -10301,7 +10266,7 @@
       <c r="E24" s="6"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>382</v>
       </c>
@@ -10317,7 +10282,7 @@
       <c r="E25" s="6"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>383</v>
       </c>
@@ -10333,7 +10298,7 @@
       <c r="E26" s="6"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>630</v>
       </c>
@@ -10349,7 +10314,7 @@
       <c r="E27" s="6"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>384</v>
       </c>
@@ -10365,7 +10330,7 @@
       <c r="E28" s="6"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>385</v>
       </c>
@@ -10381,7 +10346,7 @@
       <c r="E29" s="6"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>386</v>
       </c>
@@ -10397,7 +10362,7 @@
       <c r="E30" s="6"/>
       <c r="H30" s="14"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>387</v>
       </c>
@@ -10413,7 +10378,7 @@
       <c r="E31" s="9"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>388</v>
       </c>
@@ -10429,7 +10394,7 @@
       <c r="E32" s="6"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>389</v>
       </c>
@@ -10445,7 +10410,7 @@
       <c r="E33" s="8"/>
       <c r="H33" s="14"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>624</v>
       </c>
@@ -10460,1217 +10425,1217 @@
       </c>
       <c r="H34" s="14"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H35" s="14"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>926</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>929</v>
       </c>
     </row>
   </sheetData>
